--- a/legislator/property/output/normal/尤美女_2012-04-20_財產申報表_tmp36451.xlsx
+++ b/legislator/property/output/normal/尤美女_2012-04-20_財產申報表_tmp36451.xlsx
@@ -10,15 +10,17 @@
     <sheet name="土地" sheetId="1" r:id="rId1"/>
     <sheet name="建物" sheetId="2" r:id="rId2"/>
     <sheet name="存款" sheetId="3" r:id="rId3"/>
-    <sheet name="有價證券" sheetId="4" r:id="rId4"/>
+    <sheet name="股票" sheetId="4" r:id="rId4"/>
     <sheet name="基金受益憑證" sheetId="5" r:id="rId5"/>
+    <sheet name="保險" sheetId="6" r:id="rId6"/>
+    <sheet name="債務" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="251">
   <si>
     <t>土地坐落</t>
   </si>
@@ -323,6 +325,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>台灣塑膠工業股份有限公 司</t>
   </si>
   <si>
@@ -389,6 +400,9 @@
     <t>1，300，000</t>
   </si>
   <si>
+    <t>2012-04-20</t>
+  </si>
+  <si>
     <t>名稱</t>
   </si>
   <si>
@@ -470,6 +484,27 @@
     <t>★貝萊德世界礦 業基金</t>
   </si>
   <si>
+    <t>★荷寶中國股票 D美元</t>
+  </si>
+  <si>
+    <t>★富林拉丁美洲 基金</t>
+  </si>
+  <si>
+    <t>★霸菱東歐美元</t>
+  </si>
+  <si>
+    <t>★霸菱澳洲基金</t>
+  </si>
+  <si>
+    <t>★富達新興市場 基金</t>
+  </si>
+  <si>
+    <t>★霸菱全球資源 基金-美元</t>
+  </si>
+  <si>
+    <t>★群益鑫盛一號 某金</t>
+  </si>
+  <si>
     <t>黄瑞明</t>
   </si>
   <si>
@@ -486,6 +521,258 @@
   </si>
   <si>
     <t>新光銀行慶城 分行</t>
+  </si>
+  <si>
+    <t>國泰世華銀行 信託部</t>
+  </si>
+  <si>
+    <t>保險公司</t>
+  </si>
+  <si>
+    <t>保險名稱</t>
+  </si>
+  <si>
+    <t>要保人</t>
+  </si>
+  <si>
+    <t>備註</t>
+  </si>
+  <si>
+    <t>南山人壽保險股份有限公司</t>
+  </si>
+  <si>
+    <t>全球人壽</t>
+  </si>
+  <si>
+    <t>安聯人壽</t>
+  </si>
+  <si>
+    <t>法國巴黎人壽</t>
+  </si>
+  <si>
+    <t>★富邦人壽</t>
+  </si>
+  <si>
+    <t>★第一金人壽</t>
+  </si>
+  <si>
+    <t>★中華郵政</t>
+  </si>
+  <si>
+    <t>★法國巴黎人壽</t>
+  </si>
+  <si>
+    <t>★全球人壽</t>
+  </si>
+  <si>
+    <t>★匯豐人壽</t>
+  </si>
+  <si>
+    <t>★匯罾人壽</t>
+  </si>
+  <si>
+    <t>★南山人壽</t>
+  </si>
+  <si>
+    <t>南山康寧終身壽險</t>
+  </si>
+  <si>
+    <t>南山人壽伴我一生躉繳變額 壽險</t>
+  </si>
+  <si>
+    <t>南山全新增額養老壽險</t>
+  </si>
+  <si>
+    <t>南山金美滿還本終身保險</t>
+  </si>
+  <si>
+    <t>南山美滿還本終身保險</t>
+  </si>
+  <si>
+    <t>南山人壽新康祥終身保險一B 型</t>
+  </si>
+  <si>
+    <t>南山全新增額養老險壽</t>
+  </si>
+  <si>
+    <t>全球人壽樂活外幣變額年金 保險</t>
+  </si>
+  <si>
+    <t>超優勢變額萬能壽險（丙型）</t>
+  </si>
+  <si>
+    <t>超優勢變額年金保險</t>
+  </si>
+  <si>
+    <t>法國巴黎人壽富足人生變額 年金保險</t>
+  </si>
+  <si>
+    <t>年金保險</t>
+  </si>
+  <si>
+    <t>外幣保險</t>
+  </si>
+  <si>
+    <t>白金人壽保險</t>
+  </si>
+  <si>
+    <t>郵政簡易人壽六年期吉利保 險</t>
+  </si>
+  <si>
+    <t>致勝10 0 (年金）</t>
+  </si>
+  <si>
+    <t>好康再現專案</t>
+  </si>
+  <si>
+    <t>匯豐人壽新好醫H額醫療養 老保險</t>
+  </si>
+  <si>
+    <t>匯豐人壽新大安心傷害保本 保險</t>
+  </si>
+  <si>
+    <t>匯豐人壽富世代躉繳變額年 金保險</t>
+  </si>
+  <si>
+    <t>南山人壽新康祥終身壽險-B 型</t>
+  </si>
+  <si>
+    <t>N207106590</t>
+  </si>
+  <si>
+    <t>V171004582</t>
+  </si>
+  <si>
+    <t>N207080315</t>
+  </si>
+  <si>
+    <t>N207080328</t>
+  </si>
+  <si>
+    <t>N207080331</t>
+  </si>
+  <si>
+    <t>N207207114</t>
+  </si>
+  <si>
+    <t>N207080344</t>
+  </si>
+  <si>
+    <t>N207080357</t>
+  </si>
+  <si>
+    <t>N207080360</t>
+  </si>
+  <si>
+    <t>N207207127</t>
+  </si>
+  <si>
+    <t>N207080373</t>
+  </si>
+  <si>
+    <t>9901738960</t>
+  </si>
+  <si>
+    <t>PL02269737</t>
+  </si>
+  <si>
+    <t>PL07206108</t>
+  </si>
+  <si>
+    <t>ULD1195265</t>
+  </si>
+  <si>
+    <t>保單號碼:M101707-34901</t>
+  </si>
+  <si>
+    <t>保單號碼•• 0062-8181</t>
+  </si>
+  <si>
+    <t>保單號碼:0062-9006</t>
+  </si>
+  <si>
+    <t>保單號碼：65485917</t>
+  </si>
+  <si>
+    <t>專案代號:099105</t>
+  </si>
+  <si>
+    <t>專案代號：097111</t>
+  </si>
+  <si>
+    <t>保險號碼:60009174</t>
+  </si>
+  <si>
+    <t>保險號碼:60030108</t>
+  </si>
+  <si>
+    <t>保險號碼:60009111</t>
+  </si>
+  <si>
+    <t>保險號碼:N207080386</t>
+  </si>
+  <si>
+    <t>保險號碼:N207080399</t>
+  </si>
+  <si>
+    <t>保險號碼：犯07207130</t>
+  </si>
+  <si>
+    <t>種</t>
+  </si>
+  <si>
+    <t>類</t>
+  </si>
+  <si>
+    <t>債</t>
+  </si>
+  <si>
+    <t>務</t>
+  </si>
+  <si>
+    <t>人</t>
+  </si>
+  <si>
+    <t>投資人</t>
+  </si>
+  <si>
+    <t>★黃瑞明</t>
+  </si>
+  <si>
+    <t>投資事業名稱</t>
+  </si>
+  <si>
+    <t>先驅媒體社會企業股份有限 公司</t>
+  </si>
+  <si>
+    <t>能得科技股份有限公司</t>
+  </si>
+  <si>
+    <t>投資事業地址</t>
+  </si>
+  <si>
+    <t>臺北市仁愛路2段9 8號7 樓</t>
+  </si>
+  <si>
+    <t>臺北市敦化南路1段13 2 號5樓</t>
+  </si>
+  <si>
+    <t>取得（發生） 原 因</t>
+  </si>
+  <si>
+    <t>投資</t>
+  </si>
+  <si>
+    <t>投資金額</t>
+  </si>
+  <si>
+    <t>取得（發生） 時 間</t>
+  </si>
+  <si>
+    <t>98年07月 02日</t>
+  </si>
+  <si>
+    <t>95年01月 01日</t>
   </si>
 </sst>
 </file>
@@ -2083,7 +2370,2061 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:J24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="B1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1">
+        <v>97</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2">
+        <v>20020</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="2">
+        <v>200200</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1">
+        <v>98</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2">
+        <v>15753</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" s="2">
+        <v>157530</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1">
+        <v>99</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2">
+        <v>318</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" s="2">
+        <v>3180</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1">
+        <v>100</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2">
+        <v>117</v>
+      </c>
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1170</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1">
+        <v>101</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5191</v>
+      </c>
+      <c r="E6" s="2">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="2">
+        <v>51910</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1">
+        <v>102</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2">
+        <v>17773</v>
+      </c>
+      <c r="E7" s="2">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="2">
+        <v>177730</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
+        <v>103</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2">
+        <v>227</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2270</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
+        <v>104</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2">
+        <v>24597</v>
+      </c>
+      <c r="E9" s="2">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="2">
+        <v>245970</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
+        <v>105</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1060</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" s="2">
+        <v>10600</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
+        <v>106</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1035</v>
+      </c>
+      <c r="E11" s="2">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" s="2">
+        <v>10350</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1">
+        <v>107</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="2">
+        <v>407</v>
+      </c>
+      <c r="E12" s="2">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" s="2">
+        <v>4070</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1">
+        <v>108</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="2">
+        <v>7182</v>
+      </c>
+      <c r="E13" s="2">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" s="2">
+        <v>71820</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1">
+        <v>109</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="2">
+        <v>623</v>
+      </c>
+      <c r="E14" s="2">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" s="2">
+        <v>6230</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1">
+        <v>110</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="2">
+        <v>65421</v>
+      </c>
+      <c r="E15" s="2">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" s="2">
+        <v>654210</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1">
+        <v>111</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="2">
+        <v>579</v>
+      </c>
+      <c r="E16" s="2">
+        <v>10</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="2">
+        <v>5790</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1">
+        <v>112</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="2">
+        <v>500</v>
+      </c>
+      <c r="E17" s="2">
+        <v>10</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="2">
+        <v>5000</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1">
+        <v>113</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="2">
+        <v>16927</v>
+      </c>
+      <c r="E18" s="2">
+        <v>10</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="2">
+        <v>169270</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1">
+        <v>114</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="2">
+        <v>25000</v>
+      </c>
+      <c r="E19" s="2">
+        <v>10</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="2">
+        <v>250000</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1">
+        <v>115</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="2">
+        <v>130000</v>
+      </c>
+      <c r="E20" s="2">
+        <v>10</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1">
+        <v>116</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="2">
+        <v>472</v>
+      </c>
+      <c r="E21" s="2">
+        <v>10</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G21" s="2">
+        <v>4720</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1">
+        <v>117</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1271</v>
+      </c>
+      <c r="E22" s="2">
+        <v>10</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G22" s="2">
+        <v>12710</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1">
+        <v>118</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="2">
+        <v>314</v>
+      </c>
+      <c r="E23" s="2">
+        <v>10</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" s="2">
+        <v>3140</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1">
+        <v>119</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="2">
+        <v>138369</v>
+      </c>
+      <c r="E24" s="2">
+        <v>10</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1383690</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1730</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>129</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" s="2">
+        <v>5300.16</v>
+      </c>
+      <c r="F2" s="2">
+        <v>17.43</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2725262.77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>130</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="2">
+        <v>50000</v>
+      </c>
+      <c r="F3" s="2">
+        <v>9.03</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" s="2">
+        <v>451500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>131</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" s="2">
+        <v>50000</v>
+      </c>
+      <c r="F4" s="2">
+        <v>9.12</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" s="2">
+        <v>456000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>132</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" s="2">
+        <v>79365.1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>10.96</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" s="2">
+        <v>869841.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>133</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" s="2">
+        <v>692811.5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>10.3</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" s="2">
+        <v>7135958.45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>134</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="2">
+        <v>57865.1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>13.79</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" s="2">
+        <v>797959.73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>135</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E8" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F8" s="2">
+        <v>7.96</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" s="2">
+        <v>796000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>136</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" s="2">
+        <v>56827.4</v>
+      </c>
+      <c r="F9" s="2">
+        <v>12.12</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="2">
+        <v>688748.09</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>137</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E10" s="2">
+        <v>128844</v>
+      </c>
+      <c r="F10" s="2">
+        <v>15.59</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2008677.96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>138</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1290.879</v>
+      </c>
+      <c r="F11" s="2">
+        <v>11.02</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" s="2">
+        <v>14225.49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>139</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" s="2">
+        <v>878.23</v>
+      </c>
+      <c r="F12" s="2">
+        <v>30.76</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" s="2">
+        <v>795302.61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>140</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E13" s="2">
+        <v>144.921</v>
+      </c>
+      <c r="F13" s="2">
+        <v>179.51</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13" s="2">
+        <v>26014.77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>141</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E14" s="2">
+        <v>4991.697</v>
+      </c>
+      <c r="F14" s="2">
+        <v>10.72</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" s="2">
+        <v>53510.99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>142</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2922.326</v>
+      </c>
+      <c r="F15" s="2">
+        <v>6.85</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" s="2">
+        <v>589327.95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>143</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E16" s="2">
+        <v>240.155</v>
+      </c>
+      <c r="F16" s="2">
+        <v>78.91</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="2">
+        <v>557906.58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
+        <v>144</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E17" s="2">
+        <v>8948.284</v>
+      </c>
+      <c r="F17" s="2">
+        <v>17.65</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" s="2">
+        <v>157937.21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
+        <v>145</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E18" s="2">
+        <v>312.09</v>
+      </c>
+      <c r="F18" s="2">
+        <v>65.62</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H18" s="2">
+        <v>20479.35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
+        <v>146</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E19" s="2">
+        <v>190.211</v>
+      </c>
+      <c r="F19" s="2">
+        <v>63.08</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H19" s="2">
+        <v>11998.51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
+        <v>148</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E20" s="2">
+        <v>6879.835</v>
+      </c>
+      <c r="F20" s="2">
+        <v>11.4</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H20" s="2">
+        <v>78430.12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1">
+        <v>149</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E21" s="2">
+        <v>21933.2</v>
+      </c>
+      <c r="F21" s="2">
+        <v>62.36</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1367754.35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1">
+        <v>150</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E22" s="2">
+        <v>159.708</v>
+      </c>
+      <c r="F22" s="2">
+        <v>103.94</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H22" s="2">
+        <v>489701.46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1">
+        <v>151</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E23" s="2">
+        <v>222.28</v>
+      </c>
+      <c r="F23" s="2">
+        <v>65.62</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H23" s="2">
+        <v>430287.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1">
+        <v>152</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E24" s="2">
+        <v>136.3814</v>
+      </c>
+      <c r="F24" s="2">
+        <v>109.3</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H24" s="2">
+        <v>439741.37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1">
+        <v>153</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E25" s="2">
+        <v>212.679</v>
+      </c>
+      <c r="F25" s="2">
+        <v>78.91</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H25" s="2">
+        <v>495083.75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1">
+        <v>154</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E26" s="2">
+        <v>86.585</v>
+      </c>
+      <c r="F26" s="2">
+        <v>96.32</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H26" s="2">
+        <v>246026.08</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1">
+        <v>155</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E27" s="2">
+        <v>55.204</v>
+      </c>
+      <c r="F27" s="2">
+        <v>119.31</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H27" s="2">
+        <v>194298.48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1">
+        <v>156</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E28" s="2">
+        <v>663.76</v>
+      </c>
+      <c r="F28" s="2">
+        <v>20.78</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H28" s="2">
+        <v>406891.52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1">
+        <v>157</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E29" s="2">
+        <v>367.85</v>
+      </c>
+      <c r="F29" s="2">
+        <v>25.22</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H29" s="2">
+        <v>273676.72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1">
+        <v>158</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1661859.4</v>
+      </c>
+      <c r="F30" s="2">
+        <v>11.74</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H30" s="2">
+        <v>19510229.36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>174</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>175</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>176</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>177</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>178</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>179</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>181</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>182</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>183</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>184</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>185</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>186</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>187</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>188</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>189</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>190</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>191</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>192</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>193</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>194</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>195</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>196</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>197</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>198</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>199</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>200</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>201</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2091,1159 +4432,91 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>232</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>233</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>234</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>98</v>
+        <v>235</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>99</v>
+        <v>236</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>100</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>97</v>
+        <v>211</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>237</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="2">
-        <v>20020</v>
-      </c>
-      <c r="E2" s="2">
-        <v>10</v>
+        <v>239</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G2" s="2">
-        <v>200200</v>
+        <v>247</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>98</v>
+        <v>212</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>102</v>
+        <v>238</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="2">
-        <v>15753</v>
-      </c>
-      <c r="E3" s="2">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G3" s="2">
-        <v>157530</v>
+        <v>240</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F3" s="2">
+        <v>500000</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>99</v>
+        <v>213</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="2">
-        <v>318</v>
-      </c>
-      <c r="E4" s="2">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G4" s="2">
-        <v>3180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>100</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="2">
-        <v>117</v>
-      </c>
-      <c r="E5" s="2">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>101</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="2">
-        <v>5191</v>
-      </c>
-      <c r="E6" s="2">
-        <v>10</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G6" s="2">
-        <v>51910</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>102</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="2">
-        <v>17773</v>
-      </c>
-      <c r="E7" s="2">
-        <v>10</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G7" s="2">
-        <v>177730</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>103</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="2">
-        <v>227</v>
-      </c>
-      <c r="E8" s="2">
-        <v>10</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G8" s="2">
-        <v>2270</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>104</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="2">
-        <v>24597</v>
-      </c>
-      <c r="E9" s="2">
-        <v>10</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G9" s="2">
-        <v>245970</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>105</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1060</v>
-      </c>
-      <c r="E10" s="2">
-        <v>10</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G10" s="2">
-        <v>10600</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>106</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1035</v>
-      </c>
-      <c r="E11" s="2">
-        <v>10</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G11" s="2">
-        <v>10350</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
-        <v>107</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="2">
-        <v>407</v>
-      </c>
-      <c r="E12" s="2">
-        <v>10</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G12" s="2">
-        <v>4070</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1">
-        <v>108</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="2">
-        <v>7182</v>
-      </c>
-      <c r="E13" s="2">
-        <v>10</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G13" s="2">
-        <v>71820</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1">
-        <v>109</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="2">
-        <v>623</v>
-      </c>
-      <c r="E14" s="2">
-        <v>10</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14" s="2">
-        <v>6230</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1">
-        <v>110</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="2">
-        <v>65421</v>
-      </c>
-      <c r="E15" s="2">
-        <v>10</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G15" s="2">
-        <v>654210</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1">
-        <v>111</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="2">
-        <v>579</v>
-      </c>
-      <c r="E16" s="2">
-        <v>10</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G16" s="2">
-        <v>5790</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1">
-        <v>112</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="2">
-        <v>500</v>
-      </c>
-      <c r="E17" s="2">
-        <v>10</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G17" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1">
-        <v>113</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="2">
-        <v>16927</v>
-      </c>
-      <c r="E18" s="2">
-        <v>10</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G18" s="2">
-        <v>169270</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1">
-        <v>114</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="2">
-        <v>25000</v>
-      </c>
-      <c r="E19" s="2">
-        <v>10</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G19" s="2">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1">
-        <v>115</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="2">
-        <v>130000</v>
-      </c>
-      <c r="E20" s="2">
-        <v>10</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1">
-        <v>116</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="2">
-        <v>472</v>
-      </c>
-      <c r="E21" s="2">
-        <v>10</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G21" s="2">
-        <v>4720</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="1">
-        <v>117</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1271</v>
-      </c>
-      <c r="E22" s="2">
-        <v>10</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G22" s="2">
-        <v>12710</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="1">
-        <v>118</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="2">
-        <v>314</v>
-      </c>
-      <c r="E23" s="2">
-        <v>10</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G23" s="2">
-        <v>3140</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="1">
-        <v>119</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="2">
-        <v>138369</v>
-      </c>
-      <c r="E24" s="2">
-        <v>10</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G24" s="2">
-        <v>1383690</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>129</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E2" s="2">
-        <v>5300.16</v>
-      </c>
-      <c r="F2" s="2">
-        <v>17.43</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H2" s="2">
-        <v>2725262.77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>130</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E3" s="2">
-        <v>50000</v>
-      </c>
-      <c r="F3" s="2">
-        <v>9.03</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H3" s="2">
-        <v>451500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>131</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>241</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E4" s="2">
-        <v>50000</v>
+        <v>244</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="F4" s="2">
-        <v>9.12</v>
+        <v>100000</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H4" s="2">
-        <v>456000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>132</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E5" s="2">
-        <v>79365.1</v>
-      </c>
-      <c r="F5" s="2">
-        <v>10.96</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H5" s="2">
-        <v>869841.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>133</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E6" s="2">
-        <v>692811.5</v>
-      </c>
-      <c r="F6" s="2">
-        <v>10.3</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H6" s="2">
-        <v>7135958.45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>134</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E7" s="2">
-        <v>57865.1</v>
-      </c>
-      <c r="F7" s="2">
-        <v>13.79</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H7" s="2">
-        <v>797959.73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>135</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E8" s="2">
-        <v>100000</v>
-      </c>
-      <c r="F8" s="2">
-        <v>7.96</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H8" s="2">
-        <v>796000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>136</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E9" s="2">
-        <v>56827.4</v>
-      </c>
-      <c r="F9" s="2">
-        <v>12.12</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H9" s="2">
-        <v>688748.09</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>137</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E10" s="2">
-        <v>128844</v>
-      </c>
-      <c r="F10" s="2">
-        <v>15.59</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H10" s="2">
-        <v>2008677.96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>138</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1290.879</v>
-      </c>
-      <c r="F11" s="2">
-        <v>11.02</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H11" s="2">
-        <v>14225.49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1">
-        <v>139</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E12" s="2">
-        <v>878.23</v>
-      </c>
-      <c r="F12" s="2">
-        <v>30.76</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H12" s="2">
-        <v>795302.61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1">
-        <v>140</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E13" s="2">
-        <v>144.921</v>
-      </c>
-      <c r="F13" s="2">
-        <v>179.51</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H13" s="2">
-        <v>26014.77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1">
-        <v>141</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E14" s="2">
-        <v>4991.697</v>
-      </c>
-      <c r="F14" s="2">
-        <v>10.72</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H14" s="2">
-        <v>53510.99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1">
-        <v>142</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2922.326</v>
-      </c>
-      <c r="F15" s="2">
-        <v>6.85</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H15" s="2">
-        <v>589327.95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1">
-        <v>143</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E16" s="2">
-        <v>240.155</v>
-      </c>
-      <c r="F16" s="2">
-        <v>78.91</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H16" s="2">
-        <v>557906.58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1">
-        <v>144</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E17" s="2">
-        <v>8948.284</v>
-      </c>
-      <c r="F17" s="2">
-        <v>17.65</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H17" s="2">
-        <v>157937.21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1">
-        <v>145</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E18" s="2">
-        <v>312.09</v>
-      </c>
-      <c r="F18" s="2">
-        <v>65.62</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H18" s="2">
-        <v>20479.35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1">
-        <v>146</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E19" s="2">
-        <v>190.211</v>
-      </c>
-      <c r="F19" s="2">
-        <v>63.08</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H19" s="2">
-        <v>11998.51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1">
-        <v>148</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E20" s="2">
-        <v>6879.835</v>
-      </c>
-      <c r="F20" s="2">
-        <v>11.4</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H20" s="2">
-        <v>78430.12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1">
-        <v>149</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E21" s="2">
-        <v>21933.2</v>
-      </c>
-      <c r="F21" s="2">
-        <v>62.36</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H21" s="2">
-        <v>1367754.35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="1">
-        <v>150</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E22" s="2">
-        <v>159.708</v>
-      </c>
-      <c r="F22" s="2">
-        <v>103.94</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H22" s="2">
-        <v>489701.46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1">
-        <v>151</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E23" s="2">
-        <v>222.28</v>
-      </c>
-      <c r="F23" s="2">
-        <v>65.62</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H23" s="2">
-        <v>430287.4</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/尤美女_2012-04-20_財產申報表_tmp36451.xlsx
+++ b/legislator/property/output/normal/尤美女_2012-04-20_財產申報表_tmp36451.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="253">
   <si>
     <t>土地坐落</t>
   </si>
@@ -325,6 +325,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -334,10 +337,10 @@
     <t>legislator_id</t>
   </si>
   <si>
-    <t>台灣塑膠工業股份有限公 司</t>
-  </si>
-  <si>
-    <t>南亞塑膠工業股份有限公 司</t>
+    <t>台灣塑膠工業股份有限公司</t>
+  </si>
+  <si>
+    <t>南亞塑膠工業股份有限公司</t>
   </si>
   <si>
     <t>遠東新世紀股份有限公司</t>
@@ -355,13 +358,13 @@
     <t>國泰建設股份有限公司</t>
   </si>
   <si>
-    <t>永豐金融控股股份有限公 司</t>
+    <t>永豐金融控股股份有限公司</t>
   </si>
   <si>
     <t>原相科技股份有限公司.</t>
   </si>
   <si>
-    <t>台灣類比科技股份有限公 司</t>
+    <t>台灣類比科技股份有限公司</t>
   </si>
   <si>
     <t>和旺建設股份有限公司</t>
@@ -373,31 +376,34 @@
     <t>義隆電子股份有限公司</t>
   </si>
   <si>
-    <t>仁寶電腦工業股份有限公 司</t>
+    <t>仁寶電腦工業股份有限公司</t>
   </si>
   <si>
     <t>國巨股份有限公司</t>
   </si>
   <si>
-    <t>國鼎生物科技股份有限公 司</t>
-  </si>
-  <si>
-    <t>台灣工銀證券股份有限公 司</t>
+    <t>國鼎生物科技股份有限公司</t>
+  </si>
+  <si>
+    <t>台灣工銀證券股份有限公司</t>
   </si>
   <si>
     <t>★光寶科技股份有限公司</t>
   </si>
   <si>
-    <t>★鴻海精密工業股份有限 公司</t>
-  </si>
-  <si>
-    <t>台灣積體電路製造股份有 限公司</t>
+    <t>★鴻海精密工業股份有限公司</t>
+  </si>
+  <si>
+    <t>台灣積體電路製造股份有限公司</t>
   </si>
   <si>
     <t>★中華航空股份有限公司</t>
   </si>
   <si>
-    <t>1，300，000</t>
+    <t>1300000</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2012-04-20</t>
@@ -2370,13 +2376,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>95</v>
       </c>
@@ -2404,13 +2410,16 @@
       <c r="J1" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -2428,21 +2437,24 @@
         <v>200200</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="2">
+        <v>128</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="2">
         <v>1730</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>98</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
@@ -2460,21 +2472,24 @@
         <v>157530</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="2">
+        <v>128</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="2">
         <v>1730</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>99</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -2492,21 +2507,24 @@
         <v>3180</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="2">
+        <v>128</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="2">
         <v>1730</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -2524,21 +2542,24 @@
         <v>1170</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="2">
+        <v>128</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="2">
         <v>1730</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>21</v>
@@ -2556,21 +2577,24 @@
         <v>51910</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="2">
+        <v>128</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="2">
         <v>1730</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>21</v>
@@ -2588,21 +2612,24 @@
         <v>177730</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="2">
+        <v>128</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="2">
         <v>1730</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>103</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>21</v>
@@ -2620,21 +2647,24 @@
         <v>2270</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="2">
+        <v>128</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="2">
         <v>1730</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>104</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>21</v>
@@ -2652,21 +2682,24 @@
         <v>245970</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="2">
+        <v>128</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="2">
         <v>1730</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>105</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>21</v>
@@ -2684,21 +2717,24 @@
         <v>10600</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" s="2">
+        <v>128</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="2">
         <v>1730</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>106</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>21</v>
@@ -2716,21 +2752,24 @@
         <v>10350</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="2">
+        <v>128</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="2">
         <v>1730</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>107</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>21</v>
@@ -2748,21 +2787,24 @@
         <v>4070</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="2">
+        <v>128</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="2">
         <v>1730</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>108</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>21</v>
@@ -2780,21 +2822,24 @@
         <v>71820</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" s="2">
+        <v>128</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="2">
         <v>1730</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>109</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>20</v>
@@ -2812,21 +2857,24 @@
         <v>6230</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J14" s="2">
+        <v>128</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="2">
         <v>1730</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>110</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>20</v>
@@ -2844,21 +2892,24 @@
         <v>654210</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15" s="2">
+        <v>128</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="2">
         <v>1730</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>111</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>20</v>
@@ -2876,21 +2927,24 @@
         <v>5790</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J16" s="2">
+        <v>128</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="2">
         <v>1730</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>112</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>20</v>
@@ -2908,21 +2962,24 @@
         <v>5000</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J17" s="2">
+        <v>128</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="2">
         <v>1730</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>113</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>20</v>
@@ -2940,21 +2997,24 @@
         <v>169270</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" s="2">
+        <v>128</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="2">
         <v>1730</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>114</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>20</v>
@@ -2972,21 +3032,24 @@
         <v>250000</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19" s="2">
+        <v>128</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="2">
         <v>1730</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>115</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>20</v>
@@ -3001,24 +3064,27 @@
         <v>89</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20" s="2">
+        <v>128</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="2">
         <v>1730</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>116</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>20</v>
@@ -3036,21 +3102,24 @@
         <v>4720</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J21" s="2">
+        <v>128</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="2">
         <v>1730</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>117</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>20</v>
@@ -3068,21 +3137,24 @@
         <v>12710</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J22" s="2">
+        <v>128</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="2">
         <v>1730</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>118</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>20</v>
@@ -3100,21 +3172,24 @@
         <v>3140</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J23" s="2">
+        <v>128</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="2">
         <v>1730</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>119</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>20</v>
@@ -3132,12 +3207,15 @@
         <v>1383690</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J24" s="2">
+        <v>128</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="2">
         <v>1730</v>
       </c>
     </row>
@@ -3156,22 +3234,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>63</v>
@@ -3182,13 +3260,13 @@
         <v>129</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E2" s="2">
         <v>5300.16</v>
@@ -3208,13 +3286,13 @@
         <v>130</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E3" s="2">
         <v>50000</v>
@@ -3234,13 +3312,13 @@
         <v>131</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E4" s="2">
         <v>50000</v>
@@ -3260,13 +3338,13 @@
         <v>132</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E5" s="2">
         <v>79365.1</v>
@@ -3286,13 +3364,13 @@
         <v>133</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E6" s="2">
         <v>692811.5</v>
@@ -3312,13 +3390,13 @@
         <v>134</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E7" s="2">
         <v>57865.1</v>
@@ -3338,13 +3416,13 @@
         <v>135</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E8" s="2">
         <v>100000</v>
@@ -3364,13 +3442,13 @@
         <v>136</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E9" s="2">
         <v>56827.4</v>
@@ -3390,13 +3468,13 @@
         <v>137</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E10" s="2">
         <v>128844</v>
@@ -3416,13 +3494,13 @@
         <v>138</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E11" s="2">
         <v>1290.879</v>
@@ -3442,13 +3520,13 @@
         <v>139</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E12" s="2">
         <v>878.23</v>
@@ -3468,13 +3546,13 @@
         <v>140</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E13" s="2">
         <v>144.921</v>
@@ -3494,13 +3572,13 @@
         <v>141</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E14" s="2">
         <v>4991.697</v>
@@ -3520,13 +3598,13 @@
         <v>142</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E15" s="2">
         <v>2922.326</v>
@@ -3546,13 +3624,13 @@
         <v>143</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E16" s="2">
         <v>240.155</v>
@@ -3572,13 +3650,13 @@
         <v>144</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E17" s="2">
         <v>8948.284</v>
@@ -3598,13 +3676,13 @@
         <v>145</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E18" s="2">
         <v>312.09</v>
@@ -3624,13 +3702,13 @@
         <v>146</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E19" s="2">
         <v>190.211</v>
@@ -3650,13 +3728,13 @@
         <v>148</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E20" s="2">
         <v>6879.835</v>
@@ -3676,13 +3754,13 @@
         <v>149</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E21" s="2">
         <v>21933.2</v>
@@ -3702,13 +3780,13 @@
         <v>150</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E22" s="2">
         <v>159.708</v>
@@ -3728,13 +3806,13 @@
         <v>151</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E23" s="2">
         <v>222.28</v>
@@ -3754,13 +3832,13 @@
         <v>152</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E24" s="2">
         <v>136.3814</v>
@@ -3780,13 +3858,13 @@
         <v>153</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E25" s="2">
         <v>212.679</v>
@@ -3806,13 +3884,13 @@
         <v>154</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E26" s="2">
         <v>86.585</v>
@@ -3832,13 +3910,13 @@
         <v>155</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E27" s="2">
         <v>55.204</v>
@@ -3858,13 +3936,13 @@
         <v>156</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E28" s="2">
         <v>663.76</v>
@@ -3884,13 +3962,13 @@
         <v>157</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E29" s="2">
         <v>367.85</v>
@@ -3910,13 +3988,13 @@
         <v>158</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E30" s="2">
         <v>1661859.4</v>
@@ -3946,16 +4024,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3963,16 +4041,16 @@
         <v>174</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3980,16 +4058,16 @@
         <v>175</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3997,16 +4075,16 @@
         <v>176</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4014,16 +4092,16 @@
         <v>177</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4031,16 +4109,16 @@
         <v>178</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4048,16 +4126,16 @@
         <v>179</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4065,16 +4143,16 @@
         <v>181</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4082,16 +4160,16 @@
         <v>182</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4099,16 +4177,16 @@
         <v>183</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4116,16 +4194,16 @@
         <v>184</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4133,16 +4211,16 @@
         <v>185</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4150,16 +4228,16 @@
         <v>186</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4167,16 +4245,16 @@
         <v>187</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4184,16 +4262,16 @@
         <v>188</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4201,16 +4279,16 @@
         <v>189</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4218,16 +4296,16 @@
         <v>190</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4235,16 +4313,16 @@
         <v>191</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -4252,16 +4330,16 @@
         <v>192</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -4269,16 +4347,16 @@
         <v>193</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -4286,16 +4364,16 @@
         <v>194</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -4303,16 +4381,16 @@
         <v>195</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -4320,16 +4398,16 @@
         <v>196</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -4337,16 +4415,16 @@
         <v>197</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -4354,16 +4432,16 @@
         <v>198</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -4371,16 +4449,16 @@
         <v>199</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -4388,16 +4466,16 @@
         <v>200</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -4405,16 +4483,16 @@
         <v>201</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -4432,22 +4510,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4455,22 +4533,22 @@
         <v>211</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4478,22 +4556,22 @@
         <v>212</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F3" s="2">
         <v>500000</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4504,19 +4582,19 @@
         <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F4" s="2">
         <v>100000</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/尤美女_2012-04-20_財產申報表_tmp36451.xlsx
+++ b/legislator/property/output/normal/尤美女_2012-04-20_財產申報表_tmp36451.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="258">
   <si>
     <t>土地坐落</t>
   </si>
@@ -328,6 +328,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -337,6 +340,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>台灣塑膠工業股份有限公司</t>
   </si>
   <si>
@@ -388,16 +397,16 @@
     <t>台灣工銀證券股份有限公司</t>
   </si>
   <si>
-    <t>★光寶科技股份有限公司</t>
-  </si>
-  <si>
-    <t>★鴻海精密工業股份有限公司</t>
+    <t>光寶科技股份有限公司</t>
+  </si>
+  <si>
+    <t>鴻海精密工業股份有限公司</t>
   </si>
   <si>
     <t>台灣積體電路製造股份有限公司</t>
   </si>
   <si>
-    <t>★中華航空股份有限公司</t>
+    <t>中華航空股份有限公司</t>
   </si>
   <si>
     <t>1300000</t>
@@ -406,7 +415,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2012-04-20</t>
+  </si>
+  <si>
+    <t>tmp36451</t>
   </si>
   <si>
     <t>名稱</t>
@@ -2376,13 +2391,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>95</v>
       </c>
@@ -2413,13 +2428,22 @@
       <c r="K1" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -2437,24 +2461,33 @@
         <v>200200</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="2">
+        <v>132</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="2">
         <v>1730</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N2" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>98</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
@@ -2472,24 +2505,33 @@
         <v>157530</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="2">
+        <v>132</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="2">
         <v>1730</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N3" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>99</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -2507,24 +2549,33 @@
         <v>3180</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="2">
+        <v>132</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="2">
         <v>1730</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N4" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -2542,24 +2593,33 @@
         <v>1170</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="2">
+        <v>132</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="2">
         <v>1730</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N5" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>21</v>
@@ -2577,24 +2637,33 @@
         <v>51910</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="2">
+        <v>132</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="2">
         <v>1730</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N6" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>21</v>
@@ -2612,24 +2681,33 @@
         <v>177730</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="2">
+        <v>132</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="2">
         <v>1730</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="M7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N7" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>103</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>21</v>
@@ -2647,24 +2725,33 @@
         <v>2270</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="2">
+        <v>132</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="2">
         <v>1730</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="M8" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N8" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>104</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>21</v>
@@ -2682,24 +2769,33 @@
         <v>245970</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="2">
+        <v>132</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="2">
         <v>1730</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="M9" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N9" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>105</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>21</v>
@@ -2717,24 +2813,33 @@
         <v>10600</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="2">
+        <v>132</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="2">
         <v>1730</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="M10" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N10" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>106</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>21</v>
@@ -2752,24 +2857,33 @@
         <v>10350</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="2">
+        <v>132</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="2">
         <v>1730</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="M11" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N11" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>107</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>21</v>
@@ -2787,24 +2901,33 @@
         <v>4070</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="2">
+        <v>132</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="2">
         <v>1730</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="M12" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N12" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>108</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>21</v>
@@ -2822,24 +2945,33 @@
         <v>71820</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" s="2">
+        <v>132</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="2">
         <v>1730</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="M13" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N13" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>109</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>20</v>
@@ -2857,24 +2989,33 @@
         <v>6230</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="2">
+        <v>132</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="2">
         <v>1730</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="M14" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N14" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>110</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>20</v>
@@ -2892,24 +3033,33 @@
         <v>654210</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" s="2">
+        <v>132</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="2">
         <v>1730</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="M15" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N15" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>111</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>20</v>
@@ -2927,24 +3077,33 @@
         <v>5790</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K16" s="2">
+        <v>132</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="2">
         <v>1730</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="M16" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N16" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>112</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>20</v>
@@ -2962,24 +3121,33 @@
         <v>5000</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" s="2">
+        <v>132</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="2">
         <v>1730</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="M17" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N17" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>113</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>20</v>
@@ -2997,24 +3165,33 @@
         <v>169270</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="2">
+        <v>132</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="2">
         <v>1730</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="M18" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N18" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>114</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>20</v>
@@ -3032,24 +3209,33 @@
         <v>250000</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K19" s="2">
+        <v>132</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="2">
         <v>1730</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="M19" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N19" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>115</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>20</v>
@@ -3064,27 +3250,36 @@
         <v>89</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20" s="2">
+        <v>132</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="2">
         <v>1730</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="M20" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N20" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>116</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>20</v>
@@ -3102,24 +3297,33 @@
         <v>4720</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="2">
+        <v>132</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="2">
         <v>1730</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="M21" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N21" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>117</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>20</v>
@@ -3137,24 +3341,33 @@
         <v>12710</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K22" s="2">
+        <v>132</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="2">
         <v>1730</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="M22" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N22" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>118</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>20</v>
@@ -3172,24 +3385,33 @@
         <v>3140</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K23" s="2">
+        <v>132</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="2">
         <v>1730</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="M23" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N23" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>119</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>20</v>
@@ -3207,16 +3429,25 @@
         <v>1383690</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" s="2">
+        <v>132</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="2">
         <v>1730</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N24" s="2">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3234,22 +3465,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>63</v>
@@ -3260,13 +3491,13 @@
         <v>129</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E2" s="2">
         <v>5300.16</v>
@@ -3286,13 +3517,13 @@
         <v>130</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E3" s="2">
         <v>50000</v>
@@ -3312,13 +3543,13 @@
         <v>131</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E4" s="2">
         <v>50000</v>
@@ -3338,13 +3569,13 @@
         <v>132</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E5" s="2">
         <v>79365.1</v>
@@ -3364,13 +3595,13 @@
         <v>133</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E6" s="2">
         <v>692811.5</v>
@@ -3390,13 +3621,13 @@
         <v>134</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E7" s="2">
         <v>57865.1</v>
@@ -3416,13 +3647,13 @@
         <v>135</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E8" s="2">
         <v>100000</v>
@@ -3442,13 +3673,13 @@
         <v>136</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E9" s="2">
         <v>56827.4</v>
@@ -3468,13 +3699,13 @@
         <v>137</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E10" s="2">
         <v>128844</v>
@@ -3494,13 +3725,13 @@
         <v>138</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E11" s="2">
         <v>1290.879</v>
@@ -3520,13 +3751,13 @@
         <v>139</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E12" s="2">
         <v>878.23</v>
@@ -3546,13 +3777,13 @@
         <v>140</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E13" s="2">
         <v>144.921</v>
@@ -3572,13 +3803,13 @@
         <v>141</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E14" s="2">
         <v>4991.697</v>
@@ -3598,13 +3829,13 @@
         <v>142</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E15" s="2">
         <v>2922.326</v>
@@ -3624,13 +3855,13 @@
         <v>143</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E16" s="2">
         <v>240.155</v>
@@ -3650,13 +3881,13 @@
         <v>144</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E17" s="2">
         <v>8948.284</v>
@@ -3676,13 +3907,13 @@
         <v>145</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E18" s="2">
         <v>312.09</v>
@@ -3702,13 +3933,13 @@
         <v>146</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E19" s="2">
         <v>190.211</v>
@@ -3728,13 +3959,13 @@
         <v>148</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E20" s="2">
         <v>6879.835</v>
@@ -3754,13 +3985,13 @@
         <v>149</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E21" s="2">
         <v>21933.2</v>
@@ -3780,13 +4011,13 @@
         <v>150</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E22" s="2">
         <v>159.708</v>
@@ -3806,13 +4037,13 @@
         <v>151</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E23" s="2">
         <v>222.28</v>
@@ -3832,13 +4063,13 @@
         <v>152</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E24" s="2">
         <v>136.3814</v>
@@ -3858,13 +4089,13 @@
         <v>153</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E25" s="2">
         <v>212.679</v>
@@ -3884,13 +4115,13 @@
         <v>154</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E26" s="2">
         <v>86.585</v>
@@ -3910,13 +4141,13 @@
         <v>155</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E27" s="2">
         <v>55.204</v>
@@ -3936,13 +4167,13 @@
         <v>156</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E28" s="2">
         <v>663.76</v>
@@ -3962,13 +4193,13 @@
         <v>157</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E29" s="2">
         <v>367.85</v>
@@ -3988,13 +4219,13 @@
         <v>158</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E30" s="2">
         <v>1661859.4</v>
@@ -4024,16 +4255,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4041,16 +4272,16 @@
         <v>174</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4058,16 +4289,16 @@
         <v>175</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4075,16 +4306,16 @@
         <v>176</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4092,16 +4323,16 @@
         <v>177</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4109,16 +4340,16 @@
         <v>178</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4126,16 +4357,16 @@
         <v>179</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4143,16 +4374,16 @@
         <v>181</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4160,16 +4391,16 @@
         <v>182</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4177,16 +4408,16 @@
         <v>183</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4194,16 +4425,16 @@
         <v>184</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4211,16 +4442,16 @@
         <v>185</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4228,16 +4459,16 @@
         <v>186</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4245,16 +4476,16 @@
         <v>187</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4262,16 +4493,16 @@
         <v>188</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4279,16 +4510,16 @@
         <v>189</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4296,16 +4527,16 @@
         <v>190</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4313,16 +4544,16 @@
         <v>191</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -4330,16 +4561,16 @@
         <v>192</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -4347,16 +4578,16 @@
         <v>193</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -4364,16 +4595,16 @@
         <v>194</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -4381,16 +4612,16 @@
         <v>195</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -4398,16 +4629,16 @@
         <v>196</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -4415,16 +4646,16 @@
         <v>197</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -4432,16 +4663,16 @@
         <v>198</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -4449,16 +4680,16 @@
         <v>199</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -4466,16 +4697,16 @@
         <v>200</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -4483,16 +4714,16 @@
         <v>201</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -4510,22 +4741,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4533,22 +4764,22 @@
         <v>211</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4556,22 +4787,22 @@
         <v>212</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="F3" s="2">
         <v>500000</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4582,19 +4813,19 @@
         <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="F4" s="2">
         <v>100000</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/尤美女_2012-04-20_財產申報表_tmp36451.xlsx
+++ b/legislator/property/output/normal/尤美女_2012-04-20_財產申報表_tmp36451.xlsx
@@ -20,9 +20,141 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="258">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="258">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺北市士林區天母段一小段01430000地號</t>
+  </si>
+  <si>
+    <t>臺北市士林區天母段一小段01560000地號</t>
+  </si>
+  <si>
+    <t>臺北市士林區三玉段五小段00020000地號</t>
+  </si>
+  <si>
+    <t>南投縣南投市内新段02740000地號</t>
+  </si>
+  <si>
+    <t>南投縣中寮鄉先驅段14670000地號</t>
+  </si>
+  <si>
+    <t>南投縣中寮鄉先驅段14700001地號</t>
+  </si>
+  <si>
+    <t>10000分之312</t>
+  </si>
+  <si>
+    <t>10000分之308</t>
+  </si>
+  <si>
+    <t>20000分之484</t>
+  </si>
+  <si>
+    <t>10000分之112</t>
+  </si>
+  <si>
+    <t>10000分之64</t>
+  </si>
+  <si>
+    <t>40分之1</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>黃瑞明</t>
+  </si>
+  <si>
+    <t>尤美女</t>
+  </si>
+  <si>
+    <t>91年07月04日</t>
+  </si>
+  <si>
+    <t>90年05月18日</t>
+  </si>
+  <si>
+    <t>90年05月18H</t>
+  </si>
+  <si>
+    <t>76年12月19日</t>
+  </si>
+  <si>
+    <t>81年11月20日</t>
+  </si>
+  <si>
+    <t>79年04月28日</t>
+  </si>
+  <si>
+    <t>101年03月06日</t>
+  </si>
+  <si>
+    <t>101年03月06曰</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>分割繼承</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-20</t>
+  </si>
+  <si>
+    <t>tmp36451</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -43,157 +175,70 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺北市士林區天母段一小段 0143-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市士林區天母段一小段 0156-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市士林區三玉段五小段 0002-0000 地號</t>
-  </si>
-  <si>
-    <t>南投縣南投市内新段0274-0000 地號</t>
-  </si>
-  <si>
-    <t>南投縣中寮鄉先驅段1467-0000 地號</t>
-  </si>
-  <si>
-    <t>南投縣中寮鄉先驅段1470-0001 地號</t>
-  </si>
-  <si>
-    <t>10000分之 312</t>
-  </si>
-  <si>
-    <t>10000分之 308</t>
-  </si>
-  <si>
-    <t>20000分之 484</t>
-  </si>
-  <si>
-    <t>10000分之 112</t>
-  </si>
-  <si>
-    <t>10000分之 64</t>
-  </si>
-  <si>
-    <t>40分之1</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>黃瑞明</t>
-  </si>
-  <si>
-    <t>尤美女</t>
-  </si>
-  <si>
-    <t>91年07月 04日</t>
-  </si>
-  <si>
-    <t>90年05月 18日</t>
-  </si>
-  <si>
-    <t>90年05月 18 H</t>
-  </si>
-  <si>
-    <t>76年12月 19日</t>
-  </si>
-  <si>
-    <t>81年11月 20日</t>
-  </si>
-  <si>
-    <t>79年04月 28日</t>
-  </si>
-  <si>
-    <t>101 年 03 月06日</t>
-  </si>
-  <si>
-    <t>101 年 03 月06曰</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>分割繼承</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>臺北市士林區天母段一小段 11797-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市士林區天母段一小段 11806-000 建號</t>
-  </si>
-  <si>
-    <t>★臺北市士林區天母段一小段 11820-000 建號</t>
-  </si>
-  <si>
-    <t>★臺北市士林區天母段一小段</t>
-  </si>
-  <si>
-    <t>★臺北市士林區天母段一小段 11971-000 建號</t>
-  </si>
-  <si>
-    <t>★臺北市士林區天母段一小段 11972-000 建號</t>
-  </si>
-  <si>
-    <t>★臺北市士林區天母段一小段 11973-000 建號</t>
-  </si>
-  <si>
-    <t>★臺北市士林區三玉段五小段 51337-000 建號</t>
-  </si>
-  <si>
-    <t>★臺北市士林區=玉段五小段 51337-000 建號</t>
-  </si>
-  <si>
-    <t>★臺北市士林區三玉段五小段 51386-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市士林區三玉段五小段 51322-000 建號</t>
+    <t>臺北市士林區天母段一小段11797000建號</t>
+  </si>
+  <si>
+    <t>臺北市士林區天母段一小段11806000建號</t>
+  </si>
+  <si>
+    <t>臺北市士林區天母段一小段11820000建號</t>
+  </si>
+  <si>
+    <t>臺北市士林區天母段一小段</t>
+  </si>
+  <si>
+    <t>臺北市士林區天母段一小段11971000建號</t>
+  </si>
+  <si>
+    <t>臺北市士林區天母段一小段11972000建號</t>
+  </si>
+  <si>
+    <t>臺北市士林區天母段一小段11973000建號</t>
+  </si>
+  <si>
+    <t>臺北市士林區三玉段五小段51337000建號</t>
+  </si>
+  <si>
+    <t>臺北市士林區=玉段五小段51337000建號</t>
+  </si>
+  <si>
+    <t>臺北市士林區三玉段五小段51386000建號</t>
+  </si>
+  <si>
+    <t>臺北市士林區三玉段五小段51322000建號</t>
   </si>
   <si>
     <t>23分之2</t>
   </si>
   <si>
-    <t>10000分之 482</t>
-  </si>
-  <si>
-    <t>10000分之 624</t>
-  </si>
-  <si>
-    <t>10000分之 543</t>
+    <t>10000分之482</t>
+  </si>
+  <si>
+    <t>10000分之624</t>
+  </si>
+  <si>
+    <t>10000分之543</t>
   </si>
   <si>
     <t>44分之1</t>
   </si>
   <si>
-    <t>尤美女 黃瑞明</t>
-  </si>
-  <si>
-    <t>91年07月 04 H</t>
+    <t>尤美女黃瑞明</t>
+  </si>
+  <si>
+    <t>91年07月04H</t>
   </si>
   <si>
     <t>90年05月</t>
   </si>
   <si>
-    <t>90年05月 30日</t>
-  </si>
-  <si>
-    <t>買賣 .</t>
-  </si>
-  <si>
-    <t>(超過五年,停 車位）</t>
-  </si>
-  <si>
-    <t>(超過五年’停 車位）</t>
-  </si>
-  <si>
-    <t>(超過五年，停 車位）</t>
+    <t>90年05月30日</t>
+  </si>
+  <si>
+    <t>買賣.</t>
+  </si>
+  <si>
+    <t>(超過五年停車位）</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -214,34 +259,34 @@
     <t>新臺幣總額或折合新臺幣總額</t>
   </si>
   <si>
-    <t>台北市第九信用合作社士 林分社</t>
-  </si>
-  <si>
-    <t>士林蘭雅郵局（第8 3支 局）</t>
+    <t>台北市第九信用合作社士林分社</t>
+  </si>
+  <si>
+    <t>士林蘭雅郵局（第83支局）</t>
   </si>
   <si>
     <t>臺灣銀行士林分行</t>
   </si>
   <si>
-    <t>台新國際商業銀行天母分 行</t>
+    <t>台新國際商業銀行天母分行</t>
   </si>
   <si>
     <t>第一商業銀行民生分行</t>
   </si>
   <si>
-    <t>匯豐（台灣）商業銀行南京 東路分行</t>
-  </si>
-  <si>
-    <t>匯豐（台灣）商業銀行南京 束路分行</t>
-  </si>
-  <si>
-    <t>匯豐（台灣）商業銀fr南足 東路分行</t>
-  </si>
-  <si>
-    <t>第--商業銀行民生分行</t>
-  </si>
-  <si>
-    <t>臺灣新光商業銀行慶城分 行</t>
+    <t>匯豐（台灣）商業銀行南京東路分行</t>
+  </si>
+  <si>
+    <t>匯豐（台灣）商業銀行南京束路分行</t>
+  </si>
+  <si>
+    <t>匯豐（台灣）商業銀fr南足東路分行</t>
+  </si>
+  <si>
+    <t>第商業銀行民生分行</t>
+  </si>
+  <si>
+    <t>臺灣新光商業銀行慶城分行</t>
   </si>
   <si>
     <t>香港EFG銀行</t>
@@ -250,22 +295,22 @@
     <t>德國郵局</t>
   </si>
   <si>
-    <t>★合作金庫商業銀行民生 分行</t>
-  </si>
-  <si>
-    <t>★玉山商業銀行天母分行</t>
-  </si>
-  <si>
-    <t>★中國信託商業銀行瑞光 分行</t>
-  </si>
-  <si>
-    <t>★安泰商業銀行</t>
-  </si>
-  <si>
-    <t>★中華郵政股份有限公司 台北體育場郵局(第8 1支 局）</t>
-  </si>
-  <si>
-    <t>★匯豐(台灣)商業銀行南 京東路分行</t>
+    <t>合作金庫商業銀行民生分行</t>
+  </si>
+  <si>
+    <t>玉山商業銀行天母分行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行瑞光分行</t>
+  </si>
+  <si>
+    <t>安泰商業銀行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司台北體育場郵局(第81支局）</t>
+  </si>
+  <si>
+    <t>匯豐(台灣)商業銀行南京東路分行</t>
   </si>
   <si>
     <t>活期儲蓄存款</t>
@@ -304,13 +349,7 @@
     <t>南非幣</t>
   </si>
   <si>
-    <t>29，896.48</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
+    <t>29896.48</t>
   </si>
   <si>
     <t>quantity</t>
@@ -325,27 +364,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>台灣塑膠工業股份有限公司</t>
   </si>
   <si>
@@ -415,15 +433,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-20</t>
-  </si>
-  <si>
-    <t>tmp36451</t>
-  </si>
-  <si>
     <t>名稱</t>
   </si>
   <si>
@@ -439,91 +448,91 @@
     <t>外幣幣別</t>
   </si>
   <si>
-    <t>★貝萊德美國政 府房貸債券基金</t>
-  </si>
-  <si>
-    <t>★群益華夏盛世 基金</t>
-  </si>
-  <si>
-    <t>★群益印巴雙星 基金</t>
-  </si>
-  <si>
-    <t>★德盛安聯中國 東協基金</t>
-  </si>
-  <si>
-    <t>★德盛四季豐收 債組月配</t>
-  </si>
-  <si>
-    <t>★寶來台灣加權 股價指數</t>
-  </si>
-  <si>
-    <t>★寶來巴西指數 基金</t>
-  </si>
-  <si>
-    <t>★復華華人世紀</t>
-  </si>
-  <si>
-    <t>★群益安穩貨幣 市場</t>
-  </si>
-  <si>
-    <t>★英傑華新興市 場債美配</t>
-  </si>
-  <si>
-    <t>★富達東協基金 美元</t>
-  </si>
-  <si>
-    <t>★JF印度基金一 美元</t>
-  </si>
-  <si>
-    <t>★摩根美國複合 收益美配</t>
-  </si>
-  <si>
-    <t>★(坦全）公司債 一美元</t>
-  </si>
-  <si>
-    <t>★(坦全）拉丁美 洲-美元</t>
-  </si>
-  <si>
-    <t>★坦全新興固定 B股美元</t>
-  </si>
-  <si>
-    <t>★貝萊德世界礦 業-美元</t>
-  </si>
-  <si>
-    <t>★德利德國-歐 元</t>
-  </si>
-  <si>
-    <t>★ PIMGO多元債 歐避</t>
-  </si>
-  <si>
-    <t>★群益馬拉松基 金</t>
-  </si>
-  <si>
-    <t>★JF東協基金</t>
-  </si>
-  <si>
-    <t>★貝萊德世界礦 業基金</t>
-  </si>
-  <si>
-    <t>★荷寶中國股票 D美元</t>
-  </si>
-  <si>
-    <t>★富林拉丁美洲 基金</t>
-  </si>
-  <si>
-    <t>★霸菱東歐美元</t>
-  </si>
-  <si>
-    <t>★霸菱澳洲基金</t>
-  </si>
-  <si>
-    <t>★富達新興市場 基金</t>
-  </si>
-  <si>
-    <t>★霸菱全球資源 基金-美元</t>
-  </si>
-  <si>
-    <t>★群益鑫盛一號 某金</t>
+    <t>貝萊德美國政府房貸債券基金</t>
+  </si>
+  <si>
+    <t>群益華夏盛世基金</t>
+  </si>
+  <si>
+    <t>群益印巴雙星基金</t>
+  </si>
+  <si>
+    <t>德盛安聯中國東協基金</t>
+  </si>
+  <si>
+    <t>德盛四季豐收債組月配</t>
+  </si>
+  <si>
+    <t>寶來台灣加權股價指數</t>
+  </si>
+  <si>
+    <t>寶來巴西指數基金</t>
+  </si>
+  <si>
+    <t>復華華人世紀</t>
+  </si>
+  <si>
+    <t>群益安穩貨幣市場</t>
+  </si>
+  <si>
+    <t>英傑華新興市場債美配</t>
+  </si>
+  <si>
+    <t>富達東協基金美元</t>
+  </si>
+  <si>
+    <t>JF印度基金一美元</t>
+  </si>
+  <si>
+    <t>摩根美國複合收益美配</t>
+  </si>
+  <si>
+    <t>(坦全）公司債一美元</t>
+  </si>
+  <si>
+    <t>(坦全）拉丁美洲美元</t>
+  </si>
+  <si>
+    <t>坦全新興固定B股美元</t>
+  </si>
+  <si>
+    <t>貝萊德世界礦業美元</t>
+  </si>
+  <si>
+    <t>德利德國歐元</t>
+  </si>
+  <si>
+    <t>PIMGO多元債歐避</t>
+  </si>
+  <si>
+    <t>群益馬拉松基金</t>
+  </si>
+  <si>
+    <t>JF東協基金</t>
+  </si>
+  <si>
+    <t>貝萊德世界礦業基金</t>
+  </si>
+  <si>
+    <t>荷寶中國股票D美元</t>
+  </si>
+  <si>
+    <t>富林拉丁美洲基金</t>
+  </si>
+  <si>
+    <t>霸菱東歐美元</t>
+  </si>
+  <si>
+    <t>霸菱澳洲基金</t>
+  </si>
+  <si>
+    <t>富達新興市場基金</t>
+  </si>
+  <si>
+    <t>霸菱全球資源基金美元</t>
+  </si>
+  <si>
+    <t>群益鑫盛一號某金</t>
   </si>
   <si>
     <t>黄瑞明</t>
@@ -532,19 +541,19 @@
     <t>M瑞明</t>
   </si>
   <si>
-    <t>匯豐銀行南京 東路分行</t>
-  </si>
-  <si>
-    <t>群益證券投資 股份有限公司</t>
-  </si>
-  <si>
-    <t>第一銀行民生 分行</t>
-  </si>
-  <si>
-    <t>新光銀行慶城 分行</t>
-  </si>
-  <si>
-    <t>國泰世華銀行 信託部</t>
+    <t>匯豐銀行南京東路分行</t>
+  </si>
+  <si>
+    <t>群益證券投資股份有限公司</t>
+  </si>
+  <si>
+    <t>第一銀行民生分行</t>
+  </si>
+  <si>
+    <t>新光銀行慶城分行</t>
+  </si>
+  <si>
+    <t>國泰世華銀行信託部</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -571,34 +580,28 @@
     <t>法國巴黎人壽</t>
   </si>
   <si>
-    <t>★富邦人壽</t>
-  </si>
-  <si>
-    <t>★第一金人壽</t>
-  </si>
-  <si>
-    <t>★中華郵政</t>
-  </si>
-  <si>
-    <t>★法國巴黎人壽</t>
-  </si>
-  <si>
-    <t>★全球人壽</t>
-  </si>
-  <si>
-    <t>★匯豐人壽</t>
-  </si>
-  <si>
-    <t>★匯罾人壽</t>
-  </si>
-  <si>
-    <t>★南山人壽</t>
+    <t>富邦人壽</t>
+  </si>
+  <si>
+    <t>第一金人壽</t>
+  </si>
+  <si>
+    <t>中華郵政</t>
+  </si>
+  <si>
+    <t>匯豐人壽</t>
+  </si>
+  <si>
+    <t>匯罾人壽</t>
+  </si>
+  <si>
+    <t>南山人壽</t>
   </si>
   <si>
     <t>南山康寧終身壽險</t>
   </si>
   <si>
-    <t>南山人壽伴我一生躉繳變額 壽險</t>
+    <t>南山人壽伴我一生躉繳變額壽險</t>
   </si>
   <si>
     <t>南山全新增額養老壽險</t>
@@ -610,13 +613,13 @@
     <t>南山美滿還本終身保險</t>
   </si>
   <si>
-    <t>南山人壽新康祥終身保險一B 型</t>
+    <t>南山人壽新康祥終身保險一B型</t>
   </si>
   <si>
     <t>南山全新增額養老險壽</t>
   </si>
   <si>
-    <t>全球人壽樂活外幣變額年金 保險</t>
+    <t>全球人壽樂活外幣變額年金保險</t>
   </si>
   <si>
     <t>超優勢變額萬能壽險（丙型）</t>
@@ -625,7 +628,7 @@
     <t>超優勢變額年金保險</t>
   </si>
   <si>
-    <t>法國巴黎人壽富足人生變額 年金保險</t>
+    <t>法國巴黎人壽富足人生變額年金保險</t>
   </si>
   <si>
     <t>年金保險</t>
@@ -637,25 +640,25 @@
     <t>白金人壽保險</t>
   </si>
   <si>
-    <t>郵政簡易人壽六年期吉利保 險</t>
-  </si>
-  <si>
-    <t>致勝10 0 (年金）</t>
+    <t>郵政簡易人壽六年期吉利保險</t>
+  </si>
+  <si>
+    <t>致勝100(年金）</t>
   </si>
   <si>
     <t>好康再現專案</t>
   </si>
   <si>
-    <t>匯豐人壽新好醫H額醫療養 老保險</t>
-  </si>
-  <si>
-    <t>匯豐人壽新大安心傷害保本 保險</t>
-  </si>
-  <si>
-    <t>匯豐人壽富世代躉繳變額年 金保險</t>
-  </si>
-  <si>
-    <t>南山人壽新康祥終身壽險-B 型</t>
+    <t>匯豐人壽新好醫H額醫療養老保險</t>
+  </si>
+  <si>
+    <t>匯豐人壽新大安心傷害保本保險</t>
+  </si>
+  <si>
+    <t>匯豐人壽富世代躉繳變額年金保險</t>
+  </si>
+  <si>
+    <t>南山人壽新康祥終身壽險B型</t>
   </si>
   <si>
     <t>N207106590</t>
@@ -703,13 +706,13 @@
     <t>ULD1195265</t>
   </si>
   <si>
-    <t>保單號碼:M101707-34901</t>
-  </si>
-  <si>
-    <t>保單號碼•• 0062-8181</t>
-  </si>
-  <si>
-    <t>保單號碼:0062-9006</t>
+    <t>保單號碼:M10170734901</t>
+  </si>
+  <si>
+    <t>保單號碼00628181</t>
+  </si>
+  <si>
+    <t>保單號碼:00629006</t>
   </si>
   <si>
     <t>保單號碼：65485917</t>
@@ -757,13 +760,10 @@
     <t>投資人</t>
   </si>
   <si>
-    <t>★黃瑞明</t>
-  </si>
-  <si>
     <t>投資事業名稱</t>
   </si>
   <si>
-    <t>先驅媒體社會企業股份有限 公司</t>
+    <t>先驅媒體社會企業股份有限公司</t>
   </si>
   <si>
     <t>能得科技股份有限公司</t>
@@ -772,13 +772,13 @@
     <t>投資事業地址</t>
   </si>
   <si>
-    <t>臺北市仁愛路2段9 8號7 樓</t>
-  </si>
-  <si>
-    <t>臺北市敦化南路1段13 2 號5樓</t>
-  </si>
-  <si>
-    <t>取得（發生） 原 因</t>
+    <t>臺北市仁愛路2段98號7樓</t>
+  </si>
+  <si>
+    <t>臺北市敦化南路1段132號5樓</t>
+  </si>
+  <si>
+    <t>取得（發生）原因</t>
   </si>
   <si>
     <t>投資</t>
@@ -787,13 +787,13 @@
     <t>投資金額</t>
   </si>
   <si>
-    <t>取得（發生） 時 間</t>
-  </si>
-  <si>
-    <t>98年07月 02日</t>
-  </si>
-  <si>
-    <t>95年01月 01日</t>
+    <t>取得（發生）時間</t>
+  </si>
+  <si>
+    <t>98年07月02日</t>
+  </si>
+  <si>
+    <t>95年01月01日</t>
   </si>
 </sst>
 </file>
@@ -1152,13 +1152,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1180,239 +1180,449 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>1470</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2">
         <v>1470</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2">
         <v>1185.7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2">
         <v>1185.7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2">
         <v>2572</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2">
         <v>2572</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2">
         <v>1013.46</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O8" s="2">
         <v>20</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2">
         <v>1300</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H9" s="2">
         <v>559273</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O9" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2">
         <v>9160</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H10" s="2">
         <v>3940727</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O10" s="2">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1430,25 +1640,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1456,25 +1666,25 @@
         <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2">
         <v>114.27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1482,25 +1692,25 @@
         <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2">
         <v>111.94</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1508,25 +1718,25 @@
         <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2">
         <v>1188.6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1534,25 +1744,25 @@
         <v>30</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C5" s="2">
         <v>139.76</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1560,25 +1770,25 @@
         <v>33</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C6" s="2">
         <v>1421.8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1586,25 +1796,25 @@
         <v>34</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C7" s="2">
         <v>1802.31</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1612,25 +1822,25 @@
         <v>35</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C8" s="2">
         <v>75.98</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1638,25 +1848,25 @@
         <v>36</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C9" s="2">
         <v>157.38</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1664,25 +1874,25 @@
         <v>37</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C10" s="2">
         <v>157.38</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1690,25 +1900,25 @@
         <v>38</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C11" s="2">
         <v>1731.53</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1716,25 +1926,25 @@
         <v>39</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C12" s="2">
         <v>111.48</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1752,22 +1962,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1775,16 +1985,16 @@
         <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -1796,16 +2006,16 @@
         <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -1817,16 +2027,16 @@
         <v>66</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -1838,16 +2048,16 @@
         <v>67</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1859,16 +2069,16 @@
         <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1880,16 +2090,16 @@
         <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1901,16 +2111,16 @@
         <v>71</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1922,16 +2132,16 @@
         <v>72</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -1943,16 +2153,16 @@
         <v>73</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F10" s="2">
         <v>1601.37</v>
@@ -1966,16 +2176,16 @@
         <v>74</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F11" s="2">
         <v>6387.32</v>
@@ -1989,16 +2199,16 @@
         <v>75</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F12" s="2">
         <v>5.14</v>
@@ -2012,16 +2222,16 @@
         <v>76</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F13" s="2">
         <v>712141.44</v>
@@ -2035,16 +2245,16 @@
         <v>77</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F14" s="2">
         <v>47938.64</v>
@@ -2058,16 +2268,16 @@
         <v>78</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F15" s="2">
         <v>61679.74</v>
@@ -2081,16 +2291,16 @@
         <v>79</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
@@ -2102,16 +2312,16 @@
         <v>80</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
@@ -2123,16 +2333,16 @@
         <v>81</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F18" s="2">
         <v>790.07</v>
@@ -2146,16 +2356,16 @@
         <v>82</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F19" s="2">
         <v>297.07</v>
@@ -2169,16 +2379,16 @@
         <v>83</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F20" s="2">
         <v>84609.9</v>
@@ -2192,16 +2402,16 @@
         <v>84</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F21" s="2">
         <v>36487.92</v>
@@ -2215,16 +2425,16 @@
         <v>85</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F22" s="2">
         <v>2033.56</v>
@@ -2238,16 +2448,16 @@
         <v>86</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2">
@@ -2259,16 +2469,16 @@
         <v>87</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2">
@@ -2280,16 +2490,16 @@
         <v>88</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2">
@@ -2301,16 +2511,16 @@
         <v>89</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2">
@@ -2322,22 +2532,22 @@
         <v>90</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F27" s="2">
         <v>1013.44</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2345,16 +2555,16 @@
         <v>91</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2">
@@ -2366,16 +2576,16 @@
         <v>92</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F29" s="2">
         <v>240000</v>
@@ -2399,43 +2609,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2443,10 +2653,10 @@
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2">
         <v>20020</v>
@@ -2455,28 +2665,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="G2" s="2">
         <v>200200</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L2" s="2">
         <v>1730</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="N2" s="2">
         <v>97</v>
@@ -2487,10 +2697,10 @@
         <v>98</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2">
         <v>15753</v>
@@ -2499,28 +2709,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="G3" s="2">
         <v>157530</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L3" s="2">
         <v>1730</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="N3" s="2">
         <v>98</v>
@@ -2531,10 +2741,10 @@
         <v>99</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2">
         <v>318</v>
@@ -2543,28 +2753,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="G4" s="2">
         <v>3180</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L4" s="2">
         <v>1730</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="N4" s="2">
         <v>99</v>
@@ -2575,10 +2785,10 @@
         <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2">
         <v>117</v>
@@ -2587,28 +2797,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="G5" s="2">
         <v>1170</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L5" s="2">
         <v>1730</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="N5" s="2">
         <v>100</v>
@@ -2619,10 +2829,10 @@
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2">
         <v>5191</v>
@@ -2631,28 +2841,28 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="G6" s="2">
         <v>51910</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L6" s="2">
         <v>1730</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="N6" s="2">
         <v>101</v>
@@ -2663,10 +2873,10 @@
         <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2">
         <v>17773</v>
@@ -2675,28 +2885,28 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="G7" s="2">
         <v>177730</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L7" s="2">
         <v>1730</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="N7" s="2">
         <v>102</v>
@@ -2707,10 +2917,10 @@
         <v>103</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2">
         <v>227</v>
@@ -2719,28 +2929,28 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="G8" s="2">
         <v>2270</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L8" s="2">
         <v>1730</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="N8" s="2">
         <v>103</v>
@@ -2751,10 +2961,10 @@
         <v>104</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2">
         <v>24597</v>
@@ -2763,28 +2973,28 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="G9" s="2">
         <v>245970</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L9" s="2">
         <v>1730</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="N9" s="2">
         <v>104</v>
@@ -2795,10 +3005,10 @@
         <v>105</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2">
         <v>1060</v>
@@ -2807,28 +3017,28 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="G10" s="2">
         <v>10600</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L10" s="2">
         <v>1730</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="N10" s="2">
         <v>105</v>
@@ -2839,10 +3049,10 @@
         <v>106</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2">
         <v>1035</v>
@@ -2851,28 +3061,28 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="G11" s="2">
         <v>10350</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L11" s="2">
         <v>1730</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="N11" s="2">
         <v>106</v>
@@ -2883,10 +3093,10 @@
         <v>107</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2">
         <v>407</v>
@@ -2895,28 +3105,28 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="G12" s="2">
         <v>4070</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L12" s="2">
         <v>1730</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="N12" s="2">
         <v>107</v>
@@ -2927,10 +3137,10 @@
         <v>108</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2">
         <v>7182</v>
@@ -2939,28 +3149,28 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="G13" s="2">
         <v>71820</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L13" s="2">
         <v>1730</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="N13" s="2">
         <v>108</v>
@@ -2971,10 +3181,10 @@
         <v>109</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2">
         <v>623</v>
@@ -2983,28 +3193,28 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="G14" s="2">
         <v>6230</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L14" s="2">
         <v>1730</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="N14" s="2">
         <v>109</v>
@@ -3015,10 +3225,10 @@
         <v>110</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2">
         <v>65421</v>
@@ -3027,28 +3237,28 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="G15" s="2">
         <v>654210</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L15" s="2">
         <v>1730</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="N15" s="2">
         <v>110</v>
@@ -3059,10 +3269,10 @@
         <v>111</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2">
         <v>579</v>
@@ -3071,28 +3281,28 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="G16" s="2">
         <v>5790</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L16" s="2">
         <v>1730</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="N16" s="2">
         <v>111</v>
@@ -3103,10 +3313,10 @@
         <v>112</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2">
         <v>500</v>
@@ -3115,28 +3325,28 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="G17" s="2">
         <v>5000</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L17" s="2">
         <v>1730</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="N17" s="2">
         <v>112</v>
@@ -3147,10 +3357,10 @@
         <v>113</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2">
         <v>16927</v>
@@ -3159,28 +3369,28 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="G18" s="2">
         <v>169270</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L18" s="2">
         <v>1730</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="N18" s="2">
         <v>113</v>
@@ -3191,10 +3401,10 @@
         <v>114</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2">
         <v>25000</v>
@@ -3203,28 +3413,28 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="G19" s="2">
         <v>250000</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L19" s="2">
         <v>1730</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="N19" s="2">
         <v>114</v>
@@ -3235,10 +3445,10 @@
         <v>115</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2">
         <v>130000</v>
@@ -3247,28 +3457,28 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L20" s="2">
         <v>1730</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="N20" s="2">
         <v>115</v>
@@ -3279,10 +3489,10 @@
         <v>116</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2">
         <v>472</v>
@@ -3291,28 +3501,28 @@
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="G21" s="2">
         <v>4720</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L21" s="2">
         <v>1730</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="N21" s="2">
         <v>116</v>
@@ -3323,10 +3533,10 @@
         <v>117</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2">
         <v>1271</v>
@@ -3335,28 +3545,28 @@
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="G22" s="2">
         <v>12710</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L22" s="2">
         <v>1730</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="N22" s="2">
         <v>117</v>
@@ -3367,10 +3577,10 @@
         <v>118</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D23" s="2">
         <v>314</v>
@@ -3379,28 +3589,28 @@
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="G23" s="2">
         <v>3140</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L23" s="2">
         <v>1730</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="N23" s="2">
         <v>118</v>
@@ -3411,10 +3621,10 @@
         <v>119</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D24" s="2">
         <v>138369</v>
@@ -3423,28 +3633,28 @@
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="G24" s="2">
         <v>1383690</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L24" s="2">
         <v>1730</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="N24" s="2">
         <v>119</v>
@@ -3465,25 +3675,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3491,13 +3701,13 @@
         <v>129</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E2" s="2">
         <v>5300.16</v>
@@ -3506,7 +3716,7 @@
         <v>17.43</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="H2" s="2">
         <v>2725262.77</v>
@@ -3517,13 +3727,13 @@
         <v>130</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E3" s="2">
         <v>50000</v>
@@ -3532,7 +3742,7 @@
         <v>9.03</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="H3" s="2">
         <v>451500</v>
@@ -3543,13 +3753,13 @@
         <v>131</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E4" s="2">
         <v>50000</v>
@@ -3558,7 +3768,7 @@
         <v>9.12</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="H4" s="2">
         <v>456000</v>
@@ -3569,13 +3779,13 @@
         <v>132</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E5" s="2">
         <v>79365.1</v>
@@ -3584,7 +3794,7 @@
         <v>10.96</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="H5" s="2">
         <v>869841.5</v>
@@ -3595,13 +3805,13 @@
         <v>133</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E6" s="2">
         <v>692811.5</v>
@@ -3610,7 +3820,7 @@
         <v>10.3</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="H6" s="2">
         <v>7135958.45</v>
@@ -3621,13 +3831,13 @@
         <v>134</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E7" s="2">
         <v>57865.1</v>
@@ -3636,7 +3846,7 @@
         <v>13.79</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="H7" s="2">
         <v>797959.73</v>
@@ -3647,13 +3857,13 @@
         <v>135</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E8" s="2">
         <v>100000</v>
@@ -3662,7 +3872,7 @@
         <v>7.96</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="H8" s="2">
         <v>796000</v>
@@ -3673,13 +3883,13 @@
         <v>136</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E9" s="2">
         <v>56827.4</v>
@@ -3688,7 +3898,7 @@
         <v>12.12</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="H9" s="2">
         <v>688748.09</v>
@@ -3699,13 +3909,13 @@
         <v>137</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E10" s="2">
         <v>128844</v>
@@ -3714,7 +3924,7 @@
         <v>15.59</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="H10" s="2">
         <v>2008677.96</v>
@@ -3725,13 +3935,13 @@
         <v>138</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E11" s="2">
         <v>1290.879</v>
@@ -3740,7 +3950,7 @@
         <v>11.02</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="H11" s="2">
         <v>14225.49</v>
@@ -3751,13 +3961,13 @@
         <v>139</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E12" s="2">
         <v>878.23</v>
@@ -3766,7 +3976,7 @@
         <v>30.76</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="H12" s="2">
         <v>795302.61</v>
@@ -3777,13 +3987,13 @@
         <v>140</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E13" s="2">
         <v>144.921</v>
@@ -3792,7 +4002,7 @@
         <v>179.51</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="H13" s="2">
         <v>26014.77</v>
@@ -3803,13 +4013,13 @@
         <v>141</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E14" s="2">
         <v>4991.697</v>
@@ -3818,7 +4028,7 @@
         <v>10.72</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="H14" s="2">
         <v>53510.99</v>
@@ -3829,13 +4039,13 @@
         <v>142</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E15" s="2">
         <v>2922.326</v>
@@ -3844,7 +4054,7 @@
         <v>6.85</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="H15" s="2">
         <v>589327.95</v>
@@ -3855,13 +4065,13 @@
         <v>143</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E16" s="2">
         <v>240.155</v>
@@ -3870,7 +4080,7 @@
         <v>78.91</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="H16" s="2">
         <v>557906.58</v>
@@ -3881,13 +4091,13 @@
         <v>144</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E17" s="2">
         <v>8948.284</v>
@@ -3896,7 +4106,7 @@
         <v>17.65</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="H17" s="2">
         <v>157937.21</v>
@@ -3907,13 +4117,13 @@
         <v>145</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E18" s="2">
         <v>312.09</v>
@@ -3922,7 +4132,7 @@
         <v>65.62</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="H18" s="2">
         <v>20479.35</v>
@@ -3933,13 +4143,13 @@
         <v>146</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E19" s="2">
         <v>190.211</v>
@@ -3948,7 +4158,7 @@
         <v>63.08</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="H19" s="2">
         <v>11998.51</v>
@@ -3959,13 +4169,13 @@
         <v>148</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E20" s="2">
         <v>6879.835</v>
@@ -3974,7 +4184,7 @@
         <v>11.4</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="H20" s="2">
         <v>78430.12</v>
@@ -3985,13 +4195,13 @@
         <v>149</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E21" s="2">
         <v>21933.2</v>
@@ -4000,7 +4210,7 @@
         <v>62.36</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="H21" s="2">
         <v>1367754.35</v>
@@ -4011,13 +4221,13 @@
         <v>150</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E22" s="2">
         <v>159.708</v>
@@ -4026,7 +4236,7 @@
         <v>103.94</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="H22" s="2">
         <v>489701.46</v>
@@ -4037,13 +4247,13 @@
         <v>151</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E23" s="2">
         <v>222.28</v>
@@ -4052,7 +4262,7 @@
         <v>65.62</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="H23" s="2">
         <v>430287.4</v>
@@ -4063,13 +4273,13 @@
         <v>152</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E24" s="2">
         <v>136.3814</v>
@@ -4078,7 +4288,7 @@
         <v>109.3</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="H24" s="2">
         <v>439741.37</v>
@@ -4089,13 +4299,13 @@
         <v>153</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E25" s="2">
         <v>212.679</v>
@@ -4104,7 +4314,7 @@
         <v>78.91</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="H25" s="2">
         <v>495083.75</v>
@@ -4115,13 +4325,13 @@
         <v>154</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E26" s="2">
         <v>86.585</v>
@@ -4130,7 +4340,7 @@
         <v>96.32</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="H26" s="2">
         <v>246026.08</v>
@@ -4141,13 +4351,13 @@
         <v>155</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E27" s="2">
         <v>55.204</v>
@@ -4156,7 +4366,7 @@
         <v>119.31</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="H27" s="2">
         <v>194298.48</v>
@@ -4167,13 +4377,13 @@
         <v>156</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E28" s="2">
         <v>663.76</v>
@@ -4182,7 +4392,7 @@
         <v>20.78</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="H28" s="2">
         <v>406891.52</v>
@@ -4193,13 +4403,13 @@
         <v>157</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E29" s="2">
         <v>367.85</v>
@@ -4208,7 +4418,7 @@
         <v>25.22</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="H29" s="2">
         <v>273676.72</v>
@@ -4219,13 +4429,13 @@
         <v>158</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E30" s="2">
         <v>1661859.4</v>
@@ -4234,7 +4444,7 @@
         <v>11.74</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="H30" s="2">
         <v>19510229.36</v>
@@ -4255,16 +4465,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4272,16 +4482,16 @@
         <v>174</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4289,16 +4499,16 @@
         <v>175</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4306,16 +4516,16 @@
         <v>176</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4323,16 +4533,16 @@
         <v>177</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4340,16 +4550,16 @@
         <v>178</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4357,16 +4567,16 @@
         <v>179</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4374,16 +4584,16 @@
         <v>181</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4391,16 +4601,16 @@
         <v>182</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4408,16 +4618,16 @@
         <v>183</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4425,16 +4635,16 @@
         <v>184</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4442,16 +4652,16 @@
         <v>185</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4459,16 +4669,16 @@
         <v>186</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4476,16 +4686,16 @@
         <v>187</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4493,16 +4703,16 @@
         <v>188</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4510,16 +4720,16 @@
         <v>189</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4527,16 +4737,16 @@
         <v>190</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4544,16 +4754,16 @@
         <v>191</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -4561,16 +4771,16 @@
         <v>192</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -4578,16 +4788,16 @@
         <v>193</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -4595,16 +4805,16 @@
         <v>194</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -4612,16 +4822,16 @@
         <v>195</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -4629,16 +4839,16 @@
         <v>196</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -4646,16 +4856,16 @@
         <v>197</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -4663,16 +4873,16 @@
         <v>198</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -4680,16 +4890,16 @@
         <v>199</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -4697,16 +4907,16 @@
         <v>200</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -4714,16 +4924,16 @@
         <v>201</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -4741,22 +4951,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4764,7 +4974,7 @@
         <v>211</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>246</v>
@@ -4787,7 +4997,7 @@
         <v>212</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>245</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>247</v>
@@ -4810,7 +5020,7 @@
         <v>213</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>248</v>

--- a/legislator/property/output/normal/尤美女_2012-04-20_財產申報表_tmp36451.xlsx
+++ b/legislator/property/output/normal/尤美女_2012-04-20_財產申報表_tmp36451.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="230">
   <si>
     <t>name</t>
   </si>
@@ -64,6 +64,12 @@
     <t>index</t>
   </si>
   <si>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
     <t>臺北市士林區天母段一小段01430000地號</t>
   </si>
   <si>
@@ -82,9 +88,6 @@
     <t>南投縣中寮鄉先驅段14700001地號</t>
   </si>
   <si>
-    <t>10000分之312</t>
-  </si>
-  <si>
     <t>10000分之308</t>
   </si>
   <si>
@@ -103,12 +106,12 @@
     <t>全部</t>
   </si>
   <si>
+    <t>尤美女</t>
+  </si>
+  <si>
     <t>黃瑞明</t>
   </si>
   <si>
-    <t>尤美女</t>
-  </si>
-  <si>
     <t>91年07月04日</t>
   </si>
   <si>
@@ -154,27 +157,6 @@
     <t>tmp36451</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>臺北市士林區天母段一小段11797000建號</t>
   </si>
   <si>
@@ -241,27 +223,15 @@
     <t>(超過五年停車位）</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>台北市第九信用合作社士林分社</t>
   </si>
   <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>士林蘭雅郵局（第83支局）</t>
   </si>
   <si>
@@ -313,9 +283,6 @@
     <t>匯豐(台灣)商業銀行南京東路分行</t>
   </si>
   <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
     <t>支票存款</t>
   </si>
   <si>
@@ -334,9 +301,6 @@
     <t>其他存款</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
@@ -361,12 +325,6 @@
     <t>currency</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>台灣塑膠工業股份有限公司</t>
-  </si>
-  <si>
     <t>南亞塑膠工業股份有限公司</t>
   </si>
   <si>
@@ -433,24 +391,12 @@
     <t>stock</t>
   </si>
   <si>
-    <t>名稱</t>
-  </si>
-  <si>
-    <t>受託投資機構</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>票面價額(單位淨值）</t>
-  </si>
-  <si>
-    <t>外幣幣別</t>
-  </si>
-  <si>
     <t>貝萊德美國政府房貸債券基金</t>
   </si>
   <si>
+    <t>匯豐銀行南京東路分行</t>
+  </si>
+  <si>
     <t>群益華夏盛世基金</t>
   </si>
   <si>
@@ -541,9 +487,6 @@
     <t>M瑞明</t>
   </si>
   <si>
-    <t>匯豐銀行南京東路分行</t>
-  </si>
-  <si>
     <t>群益證券投資股份有限公司</t>
   </si>
   <si>
@@ -556,21 +499,15 @@
     <t>國泰世華銀行信託部</t>
   </si>
   <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
     <t>南山人壽保險股份有限公司</t>
   </si>
   <si>
+    <t>南山康寧終身壽險</t>
+  </si>
+  <si>
+    <t>N207106590</t>
+  </si>
+  <si>
     <t>全球人壽</t>
   </si>
   <si>
@@ -598,9 +535,6 @@
     <t>南山人壽</t>
   </si>
   <si>
-    <t>南山康寧終身壽險</t>
-  </si>
-  <si>
     <t>南山人壽伴我一生躉繳變額壽險</t>
   </si>
   <si>
@@ -661,9 +595,6 @@
     <t>南山人壽新康祥終身壽險B型</t>
   </si>
   <si>
-    <t>N207106590</t>
-  </si>
-  <si>
     <t>V171004582</t>
   </si>
   <si>
@@ -742,58 +673,43 @@
     <t>保險號碼：犯07207130</t>
   </si>
   <si>
-    <t>種</t>
-  </si>
-  <si>
-    <t>類</t>
-  </si>
-  <si>
-    <t>債</t>
-  </si>
-  <si>
-    <t>務</t>
-  </si>
-  <si>
-    <t>人</t>
-  </si>
-  <si>
     <t>投資人</t>
   </si>
   <si>
     <t>投資事業名稱</t>
   </si>
   <si>
+    <t>投資事業地址</t>
+  </si>
+  <si>
+    <t>投資金額</t>
+  </si>
+  <si>
+    <t>取得（發生）時間</t>
+  </si>
+  <si>
+    <t>取得（發生）原因</t>
+  </si>
+  <si>
     <t>先驅媒體社會企業股份有限公司</t>
   </si>
   <si>
     <t>能得科技股份有限公司</t>
   </si>
   <si>
-    <t>投資事業地址</t>
-  </si>
-  <si>
     <t>臺北市仁愛路2段98號7樓</t>
   </si>
   <si>
     <t>臺北市敦化南路1段132號5樓</t>
   </si>
   <si>
-    <t>取得（發生）原因</t>
+    <t>98年07月02日</t>
+  </si>
+  <si>
+    <t>95年01月01日</t>
   </si>
   <si>
     <t>投資</t>
-  </si>
-  <si>
-    <t>投資金額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>98年07月02日</t>
-  </si>
-  <si>
-    <t>95年01月01日</t>
   </si>
 </sst>
 </file>
@@ -1152,13 +1068,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1201,40 +1117,46 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
         <v>1470</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>28</v>
@@ -1243,45 +1165,51 @@
         <v>1730</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="2">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.0308</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>45.276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1185.7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1470</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>28</v>
@@ -1290,45 +1218,51 @@
         <v>1730</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.0242</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>28.69394</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2">
         <v>1185.7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>28</v>
@@ -1337,45 +1271,51 @@
         <v>1730</v>
       </c>
       <c r="N4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="2">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.0242</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>28.69394</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2572</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="O4" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1">
-        <v>17</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1185.7</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>28</v>
@@ -1384,45 +1324,51 @@
         <v>1730</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>18</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.0112</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>28.8064</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="C6" s="2">
         <v>2572</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>28</v>
@@ -1431,45 +1377,51 @@
         <v>1730</v>
       </c>
       <c r="N6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" s="2">
+        <v>19</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.0064</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>16.4608</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1013.46</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="O6" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1">
-        <v>19</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2572</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>28</v>
@@ -1478,45 +1430,51 @@
         <v>1730</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O7" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>20</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.025</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>25.3365</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C8" s="2">
-        <v>1013.46</v>
+        <v>1300</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>39</v>
+      <c r="H8" s="2">
+        <v>559273</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>28</v>
@@ -1525,45 +1483,51 @@
         <v>1730</v>
       </c>
       <c r="N8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8" s="2">
+        <v>21</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2">
+        <v>9160</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="2">
+        <v>3940727</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="O8" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1">
-        <v>21</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1300</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="2">
-        <v>559273</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>28</v>
@@ -1572,57 +1536,16 @@
         <v>1730</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O9" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1">
         <v>22</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
         <v>9160</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="2">
-        <v>3940727</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" s="2">
-        <v>1730</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O10" s="2">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1632,7 +1555,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1640,311 +1563,285 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="C1" s="1">
+        <v>114.27</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="2">
+        <v>111.94</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="2">
-        <v>114.27</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2">
-        <v>111.94</v>
+        <v>1188.6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2">
-        <v>1188.6</v>
+        <v>139.76</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2">
-        <v>139.76</v>
+        <v>1421.8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2">
-        <v>1421.8</v>
+        <v>1802.31</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2">
-        <v>1802.31</v>
+        <v>75.98</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="G7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2">
-        <v>75.98</v>
+        <v>157.38</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C9" s="2">
         <v>157.38</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C10" s="2">
-        <v>157.38</v>
+        <v>1731.53</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
+        <v>39</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="2">
+        <v>111.48</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1731.53</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="H11" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1">
-        <v>39</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="2">
-        <v>111.48</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1954,7 +1851,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1962,635 +1859,612 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>78</v>
+        <v>28</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>2443727</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>2443727</v>
+        <v>279811</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>279811</v>
+        <v>72472</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>72472</v>
+        <v>36539</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>36539</v>
+        <v>1951378</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>1951378</v>
+        <v>536716</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>536716</v>
+        <v>23311</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>23311</v>
+        <v>788</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2">
+        <v>1601.37</v>
+      </c>
       <c r="G9" s="2">
-        <v>788</v>
+        <v>47240.42</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F10" s="2">
-        <v>1601.37</v>
+        <v>6387.32</v>
       </c>
       <c r="G10" s="2">
-        <v>47240.42</v>
+        <v>188425.94</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F11" s="2">
-        <v>6387.32</v>
+        <v>5.14</v>
       </c>
       <c r="G11" s="2">
-        <v>188425.94</v>
+        <v>199.23</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F12" s="2">
-        <v>5.14</v>
+        <v>712141.44</v>
       </c>
       <c r="G12" s="2">
-        <v>199.23</v>
+        <v>21008172.48</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F13" s="2">
-        <v>712141.44</v>
+        <v>47938.64</v>
       </c>
       <c r="G13" s="2">
-        <v>21008172.48</v>
+        <v>1467881.16</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F14" s="2">
-        <v>47938.64</v>
+        <v>61679.74</v>
       </c>
       <c r="G14" s="2">
-        <v>1467881.16</v>
+        <v>2390706.72</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="2">
-        <v>61679.74</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="F15" s="2"/>
       <c r="G15" s="2">
-        <v>2390706.72</v>
+        <v>3328155</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
-        <v>3328155</v>
+        <v>2097541</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="F17" s="2">
+        <v>790.07</v>
+      </c>
       <c r="G17" s="2">
-        <v>2097541</v>
+        <v>3025.97</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F18" s="2">
-        <v>790.07</v>
+        <v>297.07</v>
       </c>
       <c r="G18" s="2">
-        <v>3025.97</v>
+        <v>8763.56</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F19" s="2">
-        <v>297.07</v>
+        <v>84609.9</v>
       </c>
       <c r="G19" s="2">
-        <v>8763.56</v>
+        <v>2495992.05</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F20" s="2">
-        <v>84609.9</v>
+        <v>36487.92</v>
       </c>
       <c r="G20" s="2">
-        <v>2495992.05</v>
+        <v>1076393.64</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F21" s="2">
-        <v>36487.92</v>
+        <v>2033.56</v>
       </c>
       <c r="G21" s="2">
-        <v>1076393.64</v>
+        <v>78820.79</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="2">
-        <v>2033.56</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="F22" s="2"/>
       <c r="G22" s="2">
-        <v>78820.79</v>
+        <v>20876</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2">
-        <v>20876</v>
+        <v>8080</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2">
-        <v>8080</v>
+        <v>72075</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2">
-        <v>72075</v>
+        <v>131879</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2">
-        <v>131879</v>
+        <v>29</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1013.44</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" s="2">
-        <v>1013.44</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>109</v>
+        <v>29</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2">
+        <v>1042727</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1">
+        <v>92</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="D28" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="F28" s="2">
+        <v>240000</v>
+      </c>
       <c r="G28" s="2">
-        <v>1042727</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="1">
-        <v>92</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F29" s="2">
-        <v>240000</v>
-      </c>
-      <c r="G29" s="2">
         <v>7080000</v>
       </c>
     </row>
@@ -2601,7 +2475,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2615,16 +2489,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -2650,34 +2524,34 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="2">
-        <v>20020</v>
+        <v>15753</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="G2" s="2">
-        <v>200200</v>
+        <v>157530</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>28</v>
@@ -2686,42 +2560,42 @@
         <v>1730</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N2" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="2">
-        <v>15753</v>
+        <v>318</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="G3" s="2">
-        <v>157530</v>
+        <v>3180</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>28</v>
@@ -2730,42 +2604,42 @@
         <v>1730</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N3" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="2">
-        <v>318</v>
+        <v>117</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="G4" s="2">
-        <v>3180</v>
+        <v>1170</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>28</v>
@@ -2774,42 +2648,42 @@
         <v>1730</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N4" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="2">
-        <v>117</v>
+        <v>5191</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="G5" s="2">
-        <v>1170</v>
+        <v>51910</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>28</v>
@@ -2818,42 +2692,42 @@
         <v>1730</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N5" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D6" s="2">
-        <v>5191</v>
+        <v>17773</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="G6" s="2">
-        <v>51910</v>
+        <v>177730</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>28</v>
@@ -2862,42 +2736,42 @@
         <v>1730</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N6" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="2">
-        <v>17773</v>
+        <v>227</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="G7" s="2">
-        <v>177730</v>
+        <v>2270</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>28</v>
@@ -2906,42 +2780,42 @@
         <v>1730</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N7" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="2">
-        <v>227</v>
+        <v>24597</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="G8" s="2">
-        <v>2270</v>
+        <v>245970</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>28</v>
@@ -2950,42 +2824,42 @@
         <v>1730</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N8" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="2">
-        <v>24597</v>
+        <v>1060</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="G9" s="2">
-        <v>245970</v>
+        <v>10600</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>28</v>
@@ -2994,42 +2868,42 @@
         <v>1730</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N9" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="2">
-        <v>1060</v>
+        <v>1035</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="G10" s="2">
-        <v>10600</v>
+        <v>10350</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>28</v>
@@ -3038,42 +2912,42 @@
         <v>1730</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N10" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="2">
-        <v>1035</v>
+        <v>407</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="G11" s="2">
-        <v>10350</v>
+        <v>4070</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>28</v>
@@ -3082,42 +2956,42 @@
         <v>1730</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N11" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="2">
-        <v>407</v>
+        <v>7182</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="G12" s="2">
-        <v>4070</v>
+        <v>71820</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>28</v>
@@ -3126,42 +3000,42 @@
         <v>1730</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N12" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13" s="2">
-        <v>7182</v>
+        <v>623</v>
       </c>
       <c r="E13" s="2">
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="G13" s="2">
-        <v>71820</v>
+        <v>6230</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>28</v>
@@ -3170,42 +3044,42 @@
         <v>1730</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N13" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2">
-        <v>623</v>
+        <v>65421</v>
       </c>
       <c r="E14" s="2">
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="G14" s="2">
-        <v>6230</v>
+        <v>654210</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>28</v>
@@ -3214,42 +3088,42 @@
         <v>1730</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N14" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D15" s="2">
-        <v>65421</v>
+        <v>579</v>
       </c>
       <c r="E15" s="2">
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="G15" s="2">
-        <v>654210</v>
+        <v>5790</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>28</v>
@@ -3258,42 +3132,42 @@
         <v>1730</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N15" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D16" s="2">
-        <v>579</v>
+        <v>500</v>
       </c>
       <c r="E16" s="2">
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="G16" s="2">
-        <v>5790</v>
+        <v>5000</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>28</v>
@@ -3302,42 +3176,42 @@
         <v>1730</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N16" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D17" s="2">
-        <v>500</v>
+        <v>16927</v>
       </c>
       <c r="E17" s="2">
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="G17" s="2">
-        <v>5000</v>
+        <v>169270</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>28</v>
@@ -3346,42 +3220,42 @@
         <v>1730</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N17" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D18" s="2">
-        <v>16927</v>
+        <v>25000</v>
       </c>
       <c r="E18" s="2">
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="G18" s="2">
-        <v>169270</v>
+        <v>250000</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>28</v>
@@ -3390,42 +3264,42 @@
         <v>1730</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N18" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D19" s="2">
-        <v>25000</v>
+        <v>130000</v>
       </c>
       <c r="E19" s="2">
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G19" s="2">
-        <v>250000</v>
+        <v>69</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>28</v>
@@ -3434,42 +3308,42 @@
         <v>1730</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N19" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D20" s="2">
-        <v>130000</v>
+        <v>472</v>
       </c>
       <c r="E20" s="2">
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>135</v>
+        <v>69</v>
+      </c>
+      <c r="G20" s="2">
+        <v>4720</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>28</v>
@@ -3478,42 +3352,42 @@
         <v>1730</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N20" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D21" s="2">
-        <v>472</v>
+        <v>1271</v>
       </c>
       <c r="E21" s="2">
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="G21" s="2">
-        <v>4720</v>
+        <v>12710</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>28</v>
@@ -3522,42 +3396,42 @@
         <v>1730</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N21" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D22" s="2">
-        <v>1271</v>
+        <v>314</v>
       </c>
       <c r="E22" s="2">
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="G22" s="2">
-        <v>12710</v>
+        <v>3140</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>28</v>
@@ -3566,42 +3440,42 @@
         <v>1730</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N22" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D23" s="2">
-        <v>314</v>
+        <v>138369</v>
       </c>
       <c r="E23" s="2">
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="G23" s="2">
-        <v>3140</v>
+        <v>1383690</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>28</v>
@@ -3610,53 +3484,9 @@
         <v>1730</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N23" s="2">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="1">
-        <v>119</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="2">
-        <v>138369</v>
-      </c>
-      <c r="E24" s="2">
-        <v>10</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G24" s="2">
-        <v>1383690</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" s="2">
-        <v>1730</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N24" s="2">
         <v>119</v>
       </c>
     </row>
@@ -3667,7 +3497,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3675,778 +3505,752 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>140</v>
+        <v>124</v>
+      </c>
+      <c r="E1" s="1">
+        <v>5300.16</v>
+      </c>
+      <c r="F1" s="1">
+        <v>17.43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>78</v>
+        <v>93</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2725262.77</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="E2" s="2">
-        <v>5300.16</v>
+        <v>50000</v>
       </c>
       <c r="F2" s="2">
-        <v>17.43</v>
+        <v>9.03</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="H2" s="2">
-        <v>2725262.77</v>
+        <v>451500</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="E3" s="2">
         <v>50000</v>
       </c>
       <c r="F3" s="2">
-        <v>9.03</v>
+        <v>9.12</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="H3" s="2">
-        <v>451500</v>
+        <v>456000</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="E4" s="2">
-        <v>50000</v>
+        <v>79365.1</v>
       </c>
       <c r="F4" s="2">
-        <v>9.12</v>
+        <v>10.96</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="H4" s="2">
-        <v>456000</v>
+        <v>869841.5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="E5" s="2">
-        <v>79365.1</v>
+        <v>692811.5</v>
       </c>
       <c r="F5" s="2">
-        <v>10.96</v>
+        <v>10.3</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="H5" s="2">
-        <v>869841.5</v>
+        <v>7135958.45</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="E6" s="2">
-        <v>692811.5</v>
+        <v>57865.1</v>
       </c>
       <c r="F6" s="2">
-        <v>10.3</v>
+        <v>13.79</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="H6" s="2">
-        <v>7135958.45</v>
+        <v>797959.73</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="E7" s="2">
-        <v>57865.1</v>
+        <v>100000</v>
       </c>
       <c r="F7" s="2">
-        <v>13.79</v>
+        <v>7.96</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="H7" s="2">
-        <v>797959.73</v>
+        <v>796000</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="E8" s="2">
-        <v>100000</v>
+        <v>56827.4</v>
       </c>
       <c r="F8" s="2">
-        <v>7.96</v>
+        <v>12.12</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="H8" s="2">
-        <v>796000</v>
+        <v>688748.09</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="E9" s="2">
-        <v>56827.4</v>
+        <v>128844</v>
       </c>
       <c r="F9" s="2">
-        <v>12.12</v>
+        <v>15.59</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="H9" s="2">
-        <v>688748.09</v>
+        <v>2008677.96</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="E10" s="2">
-        <v>128844</v>
+        <v>1290.879</v>
       </c>
       <c r="F10" s="2">
-        <v>15.59</v>
+        <v>11.02</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="H10" s="2">
-        <v>2008677.96</v>
+        <v>14225.49</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="E11" s="2">
-        <v>1290.879</v>
+        <v>878.23</v>
       </c>
       <c r="F11" s="2">
-        <v>11.02</v>
+        <v>30.76</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="H11" s="2">
-        <v>14225.49</v>
+        <v>795302.61</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="E12" s="2">
-        <v>878.23</v>
+        <v>144.921</v>
       </c>
       <c r="F12" s="2">
-        <v>30.76</v>
+        <v>179.51</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="H12" s="2">
-        <v>795302.61</v>
+        <v>26014.77</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>171</v>
+        <v>29</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="E13" s="2">
-        <v>144.921</v>
+        <v>4991.697</v>
       </c>
       <c r="F13" s="2">
-        <v>179.51</v>
+        <v>10.72</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="H13" s="2">
-        <v>26014.77</v>
+        <v>53510.99</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="E14" s="2">
-        <v>4991.697</v>
+        <v>2922.326</v>
       </c>
       <c r="F14" s="2">
-        <v>10.72</v>
+        <v>6.85</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="H14" s="2">
-        <v>53510.99</v>
+        <v>589327.95</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="E15" s="2">
-        <v>2922.326</v>
+        <v>240.155</v>
       </c>
       <c r="F15" s="2">
-        <v>6.85</v>
+        <v>78.91</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="H15" s="2">
-        <v>589327.95</v>
+        <v>557906.58</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="E16" s="2">
-        <v>240.155</v>
+        <v>8948.284</v>
       </c>
       <c r="F16" s="2">
-        <v>78.91</v>
+        <v>17.65</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="H16" s="2">
-        <v>557906.58</v>
+        <v>157937.21</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>172</v>
+        <v>29</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="E17" s="2">
-        <v>8948.284</v>
+        <v>312.09</v>
       </c>
       <c r="F17" s="2">
-        <v>17.65</v>
+        <v>65.62</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="H17" s="2">
-        <v>157937.21</v>
+        <v>20479.35</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="E18" s="2">
-        <v>312.09</v>
+        <v>190.211</v>
       </c>
       <c r="F18" s="2">
-        <v>65.62</v>
+        <v>63.08</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="H18" s="2">
-        <v>20479.35</v>
+        <v>11998.51</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="E19" s="2">
-        <v>190.211</v>
+        <v>6879.835</v>
       </c>
       <c r="F19" s="2">
-        <v>63.08</v>
+        <v>11.4</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="H19" s="2">
-        <v>11998.51</v>
+        <v>78430.12</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="E20" s="2">
-        <v>6879.835</v>
+        <v>21933.2</v>
       </c>
       <c r="F20" s="2">
-        <v>11.4</v>
+        <v>62.36</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="H20" s="2">
-        <v>78430.12</v>
+        <v>1367754.35</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="E21" s="2">
-        <v>21933.2</v>
+        <v>159.708</v>
       </c>
       <c r="F21" s="2">
-        <v>62.36</v>
+        <v>103.94</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="H21" s="2">
-        <v>1367754.35</v>
+        <v>489701.46</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="E22" s="2">
-        <v>159.708</v>
+        <v>222.28</v>
       </c>
       <c r="F22" s="2">
-        <v>103.94</v>
+        <v>65.62</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="H22" s="2">
-        <v>489701.46</v>
+        <v>430287.4</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="E23" s="2">
-        <v>222.28</v>
+        <v>136.3814</v>
       </c>
       <c r="F23" s="2">
-        <v>65.62</v>
+        <v>109.3</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="H23" s="2">
-        <v>430287.4</v>
+        <v>439741.37</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="E24" s="2">
-        <v>136.3814</v>
+        <v>212.679</v>
       </c>
       <c r="F24" s="2">
-        <v>109.3</v>
+        <v>78.91</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="H24" s="2">
-        <v>439741.37</v>
+        <v>495083.75</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="E25" s="2">
-        <v>212.679</v>
+        <v>86.585</v>
       </c>
       <c r="F25" s="2">
-        <v>78.91</v>
+        <v>96.32</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="H25" s="2">
-        <v>495083.75</v>
+        <v>246026.08</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="E26" s="2">
-        <v>86.585</v>
+        <v>55.204</v>
       </c>
       <c r="F26" s="2">
-        <v>96.32</v>
+        <v>119.31</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="H26" s="2">
-        <v>246026.08</v>
+        <v>194298.48</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="E27" s="2">
-        <v>55.204</v>
+        <v>663.76</v>
       </c>
       <c r="F27" s="2">
-        <v>119.31</v>
+        <v>20.78</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="H27" s="2">
-        <v>194298.48</v>
+        <v>406891.52</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="E28" s="2">
-        <v>663.76</v>
+        <v>367.85</v>
       </c>
       <c r="F28" s="2">
-        <v>20.78</v>
+        <v>25.22</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="H28" s="2">
-        <v>406891.52</v>
+        <v>273676.72</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="E29" s="2">
-        <v>367.85</v>
+        <v>1661859.4</v>
       </c>
       <c r="F29" s="2">
-        <v>25.22</v>
+        <v>11.74</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="H29" s="2">
-        <v>273676.72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="1">
-        <v>158</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E30" s="2">
-        <v>1661859.4</v>
-      </c>
-      <c r="F30" s="2">
-        <v>11.74</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H30" s="2">
         <v>19510229.36</v>
       </c>
     </row>
@@ -4457,7 +4261,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4465,475 +4269,458 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>180</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="D24" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1">
-        <v>201</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -4943,7 +4730,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4951,91 +4738,68 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>245</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>252</v>
+        <v>225</v>
+      </c>
+      <c r="E2" s="2">
+        <v>500000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="F3" s="2">
-        <v>500000</v>
+        <v>226</v>
+      </c>
+      <c r="E3" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>228</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>213</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="F4" s="2">
-        <v>100000</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/尤美女_2012-04-20_財產申報表_tmp36451.xlsx
+++ b/legislator/property/output/normal/尤美女_2012-04-20_財產申報表_tmp36451.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="232">
   <si>
     <t>name</t>
   </si>
@@ -88,6 +88,9 @@
     <t>南投縣中寮鄉先驅段14700001地號</t>
   </si>
   <si>
+    <t>10000分之312</t>
+  </si>
+  <si>
     <t>10000分之308</t>
   </si>
   <si>
@@ -106,12 +109,12 @@
     <t>全部</t>
   </si>
   <si>
+    <t>黃瑞明</t>
+  </si>
+  <si>
     <t>尤美女</t>
   </si>
   <si>
-    <t>黃瑞明</t>
-  </si>
-  <si>
     <t>91年07月04日</t>
   </si>
   <si>
@@ -323,6 +326,9 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>台灣塑膠工業股份有限公司</t>
   </si>
   <si>
     <t>南亞塑膠工業股份有限公司</t>
@@ -1068,7 +1074,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1126,7 +1132,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
@@ -1138,101 +1144,101 @@
         <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M2" s="2">
         <v>1730</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
-        <v>0.0308</v>
+        <v>0.0312</v>
       </c>
       <c r="Q2" s="2">
-        <v>45.276</v>
+        <v>45.864</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C3" s="2">
-        <v>1185.7</v>
+        <v>1470</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M3" s="2">
         <v>1730</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
-        <v>0.0242</v>
+        <v>0.0308</v>
       </c>
       <c r="Q3" s="2">
-        <v>28.69394</v>
+        <v>45.276</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>17</v>
@@ -1241,40 +1247,40 @@
         <v>1185.7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M4" s="2">
         <v>1730</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
         <v>0.0242</v>
@@ -1285,60 +1291,60 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
-        <v>2572</v>
+        <v>1185.7</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>33</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M5" s="2">
         <v>1730</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O5" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P5" s="2">
-        <v>0.0112</v>
+        <v>0.0242</v>
       </c>
       <c r="Q5" s="2">
-        <v>28.8064</v>
+        <v>28.69394</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>18</v>
@@ -1350,60 +1356,60 @@
         <v>25</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="2">
         <v>1730</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O6" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" s="2">
-        <v>0.0064</v>
+        <v>0.0112</v>
       </c>
       <c r="Q6" s="2">
-        <v>16.4608</v>
+        <v>28.8064</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2">
-        <v>1013.46</v>
+        <v>2572</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>35</v>
@@ -1412,45 +1418,45 @@
         <v>39</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M7" s="2">
         <v>1730</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O7" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P7" s="2">
-        <v>0.025</v>
+        <v>0.0064</v>
       </c>
       <c r="Q7" s="2">
-        <v>25.3365</v>
+        <v>16.4608</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2">
-        <v>1300</v>
+        <v>1013.46</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>27</v>
@@ -1462,51 +1468,51 @@
         <v>36</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="2">
-        <v>559273</v>
+        <v>40</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M8" s="2">
         <v>1730</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O8" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P8" s="2">
-        <v>1</v>
+        <v>0.025</v>
       </c>
       <c r="Q8" s="2">
-        <v>1300</v>
+        <v>25.3365</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2">
-        <v>9160</v>
+        <v>1300</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>29</v>
@@ -1515,36 +1521,89 @@
         <v>37</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H9" s="2">
-        <v>3940727</v>
+        <v>559273</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="2">
         <v>1730</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O9" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P9" s="2">
         <v>1</v>
       </c>
       <c r="Q9" s="2">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="1">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2">
+        <v>9160</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="2">
+        <v>3940727</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" s="2">
+        <v>22</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2">
         <v>9160</v>
       </c>
     </row>
@@ -1555,220 +1614,436 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="1">
-        <v>114.27</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
         <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="2">
-        <v>111.94</v>
+        <v>114.27</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="2">
         <v>27</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>114.27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
         <v>28</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C3" s="2">
-        <v>1188.6</v>
+        <v>111.94</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" s="2">
+        <v>28</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>111.94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C4" s="2">
-        <v>139.76</v>
+        <v>1188.6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>63</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="2">
+        <v>29</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.0869565217391304</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>103.35652173913</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C5" s="2">
-        <v>1421.8</v>
+        <v>139.76</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>64</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="2">
+        <v>30</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>139.76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C6" s="2">
-        <v>1802.31</v>
+        <v>1421.8</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>58</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" s="2">
+        <v>33</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.0482</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>68.53076</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C7" s="2">
-        <v>75.98</v>
+        <v>1802.31</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" s="2">
+        <v>34</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.0624</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>112.464144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C8" s="2">
-        <v>157.38</v>
+        <v>75.98</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O8" s="2">
+        <v>35</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.0543</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>4.125714</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>53</v>
@@ -1777,71 +2052,205 @@
         <v>157.38</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O9" s="2">
+        <v>36</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>157.38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="2">
-        <v>1731.53</v>
+        <v>157.38</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" s="2">
+        <v>37</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>157.38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="1">
         <v>38</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>39</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C11" s="2">
-        <v>111.48</v>
+        <v>1731.53</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O11" s="2">
         <v>38</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>40</v>
+      <c r="P11" s="2">
+        <v>0.0227272727272727</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>39.3529545454545</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1">
+        <v>39</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="2">
+        <v>111.48</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O12" s="2">
+        <v>39</v>
+      </c>
+      <c r="P12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>111.48</v>
       </c>
     </row>
   </sheetData>
@@ -1851,7 +2260,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1859,16 +2268,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1">
@@ -1877,133 +2286,133 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>279811</v>
+        <v>2443727</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>72472</v>
+        <v>279811</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>36539</v>
+        <v>72472</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>1951378</v>
+        <v>36539</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>536716</v>
+        <v>1951378</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>23311</v>
+        <v>536716</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>74</v>
@@ -2012,297 +2421,295 @@
         <v>90</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>788</v>
+        <v>23311</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>91</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1601.37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>47240.42</v>
+        <v>788</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2">
-        <v>6387.32</v>
+        <v>1601.37</v>
       </c>
       <c r="G10" s="2">
-        <v>188425.94</v>
+        <v>47240.42</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>94</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F11" s="2">
-        <v>5.14</v>
+        <v>6387.32</v>
       </c>
       <c r="G11" s="2">
-        <v>199.23</v>
+        <v>188425.94</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F12" s="2">
-        <v>712141.44</v>
+        <v>5.14</v>
       </c>
       <c r="G12" s="2">
-        <v>21008172.48</v>
+        <v>199.23</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F13" s="2">
-        <v>47938.64</v>
+        <v>712141.44</v>
       </c>
       <c r="G13" s="2">
-        <v>1467881.16</v>
+        <v>21008172.48</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F14" s="2">
-        <v>61679.74</v>
+        <v>47938.64</v>
       </c>
       <c r="G14" s="2">
-        <v>2390706.72</v>
+        <v>1467881.16</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2">
+        <v>61679.74</v>
+      </c>
       <c r="G15" s="2">
-        <v>3328155</v>
+        <v>2390706.72</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
-        <v>2097541</v>
+        <v>3328155</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="2">
-        <v>790.07</v>
-      </c>
+      <c r="F17" s="2"/>
       <c r="G17" s="2">
-        <v>3025.97</v>
+        <v>2097541</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F18" s="2">
-        <v>297.07</v>
+        <v>790.07</v>
       </c>
       <c r="G18" s="2">
-        <v>8763.56</v>
+        <v>3025.97</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F19" s="2">
-        <v>84609.9</v>
+        <v>297.07</v>
       </c>
       <c r="G19" s="2">
-        <v>2495992.05</v>
+        <v>8763.56</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F20" s="2">
-        <v>36487.92</v>
+        <v>84609.9</v>
       </c>
       <c r="G20" s="2">
-        <v>1076393.64</v>
+        <v>2495992.05</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>94</v>
@@ -2311,160 +2718,183 @@
         <v>29</v>
       </c>
       <c r="F21" s="2">
-        <v>2033.56</v>
+        <v>36487.92</v>
       </c>
       <c r="G21" s="2">
-        <v>78820.79</v>
+        <v>1076393.64</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F22" s="2"/>
+      <c r="F22" s="2">
+        <v>2033.56</v>
+      </c>
       <c r="G22" s="2">
-        <v>20876</v>
+        <v>78820.79</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2">
-        <v>8080</v>
+        <v>20876</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2">
-        <v>72075</v>
+        <v>8080</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2">
-        <v>131879</v>
+        <v>72075</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1">
+        <v>89</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="D26" s="2" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="2">
-        <v>1013.44</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>97</v>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2">
+        <v>131879</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2">
-        <v>1042727</v>
+      <c r="F27" s="2">
+        <v>1013.44</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F28" s="2">
+        <v>29</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2">
+        <v>1042727</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>92</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="2">
         <v>240000</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G29" s="2">
         <v>7080000</v>
       </c>
     </row>
@@ -2475,7 +2905,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2489,13 +2919,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2524,969 +2954,1013 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2">
-        <v>15753</v>
+        <v>20020</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G2" s="2">
-        <v>157530</v>
+        <v>200200</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L2" s="2">
         <v>1730</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N2" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2">
-        <v>318</v>
+        <v>15753</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G3" s="2">
-        <v>3180</v>
+        <v>157530</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L3" s="2">
         <v>1730</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N3" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2">
-        <v>117</v>
+        <v>318</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G4" s="2">
-        <v>1170</v>
+        <v>3180</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L4" s="2">
         <v>1730</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N4" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2">
-        <v>5191</v>
+        <v>117</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G5" s="2">
-        <v>51910</v>
+        <v>1170</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L5" s="2">
         <v>1730</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N5" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6" s="2">
-        <v>17773</v>
+        <v>5191</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G6" s="2">
-        <v>177730</v>
+        <v>51910</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="2">
         <v>1730</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N6" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2">
-        <v>227</v>
+        <v>17773</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G7" s="2">
-        <v>2270</v>
+        <v>177730</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L7" s="2">
         <v>1730</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N7" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2">
-        <v>24597</v>
+        <v>227</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G8" s="2">
-        <v>245970</v>
+        <v>2270</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L8" s="2">
         <v>1730</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N8" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D9" s="2">
-        <v>1060</v>
+        <v>24597</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G9" s="2">
-        <v>10600</v>
+        <v>245970</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="2">
         <v>1730</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N9" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D10" s="2">
-        <v>1035</v>
+        <v>1060</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G10" s="2">
-        <v>10350</v>
+        <v>10600</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L10" s="2">
         <v>1730</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N10" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2">
-        <v>407</v>
+        <v>1035</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G11" s="2">
-        <v>4070</v>
+        <v>10350</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L11" s="2">
         <v>1730</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N11" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D12" s="2">
-        <v>7182</v>
+        <v>407</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G12" s="2">
-        <v>71820</v>
+        <v>4070</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="2">
         <v>1730</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N12" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D13" s="2">
-        <v>623</v>
+        <v>7182</v>
       </c>
       <c r="E13" s="2">
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G13" s="2">
-        <v>6230</v>
+        <v>71820</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L13" s="2">
         <v>1730</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N13" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="2">
-        <v>65421</v>
+        <v>623</v>
       </c>
       <c r="E14" s="2">
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G14" s="2">
-        <v>654210</v>
+        <v>6230</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L14" s="2">
         <v>1730</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N14" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="2">
-        <v>579</v>
+        <v>65421</v>
       </c>
       <c r="E15" s="2">
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G15" s="2">
-        <v>5790</v>
+        <v>654210</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="2">
         <v>1730</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N15" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="2">
-        <v>500</v>
+        <v>579</v>
       </c>
       <c r="E16" s="2">
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G16" s="2">
-        <v>5000</v>
+        <v>5790</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L16" s="2">
         <v>1730</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N16" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D17" s="2">
-        <v>16927</v>
+        <v>500</v>
       </c>
       <c r="E17" s="2">
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G17" s="2">
-        <v>169270</v>
+        <v>5000</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L17" s="2">
         <v>1730</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N17" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="2">
-        <v>25000</v>
+        <v>16927</v>
       </c>
       <c r="E18" s="2">
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G18" s="2">
-        <v>250000</v>
+        <v>169270</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="2">
         <v>1730</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N18" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D19" s="2">
-        <v>130000</v>
+        <v>25000</v>
       </c>
       <c r="E19" s="2">
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>121</v>
+        <v>70</v>
+      </c>
+      <c r="G19" s="2">
+        <v>250000</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L19" s="2">
         <v>1730</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N19" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="2">
-        <v>472</v>
+        <v>130000</v>
       </c>
       <c r="E20" s="2">
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G20" s="2">
-        <v>4720</v>
+        <v>70</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L20" s="2">
         <v>1730</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N20" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D21" s="2">
-        <v>1271</v>
+        <v>472</v>
       </c>
       <c r="E21" s="2">
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G21" s="2">
-        <v>12710</v>
+        <v>4720</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="2">
         <v>1730</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N21" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="2">
-        <v>314</v>
+        <v>1271</v>
       </c>
       <c r="E22" s="2">
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G22" s="2">
-        <v>3140</v>
+        <v>12710</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L22" s="2">
         <v>1730</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N22" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="2">
-        <v>138369</v>
+        <v>314</v>
       </c>
       <c r="E23" s="2">
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G23" s="2">
-        <v>1383690</v>
+        <v>3140</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L23" s="2">
         <v>1730</v>
       </c>
       <c r="M23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N23" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="1">
+        <v>119</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="2">
+        <v>138369</v>
+      </c>
+      <c r="E24" s="2">
+        <v>10</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1383690</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J24" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N23" s="2">
+      <c r="K24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="2">
+        <v>1730</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N24" s="2">
         <v>119</v>
       </c>
     </row>
@@ -3497,7 +3971,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3505,13 +3979,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E1" s="1">
         <v>5300.16</v>
@@ -3520,7 +3994,7 @@
         <v>17.43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H1" s="1">
         <v>2725262.77</v>
@@ -3528,729 +4002,755 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>125</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="E2" s="2">
-        <v>50000</v>
+        <v>5300.16</v>
       </c>
       <c r="F2" s="2">
-        <v>9.03</v>
+        <v>17.43</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="H2" s="2">
-        <v>451500</v>
+        <v>2725262.77</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E3" s="2">
         <v>50000</v>
       </c>
       <c r="F3" s="2">
-        <v>9.12</v>
+        <v>9.03</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H3" s="2">
-        <v>456000</v>
+        <v>451500</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E4" s="2">
-        <v>79365.1</v>
+        <v>50000</v>
       </c>
       <c r="F4" s="2">
-        <v>10.96</v>
+        <v>9.12</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H4" s="2">
-        <v>869841.5</v>
+        <v>456000</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E5" s="2">
-        <v>692811.5</v>
+        <v>79365.1</v>
       </c>
       <c r="F5" s="2">
-        <v>10.3</v>
+        <v>10.96</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H5" s="2">
-        <v>7135958.45</v>
+        <v>869841.5</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E6" s="2">
-        <v>57865.1</v>
+        <v>692811.5</v>
       </c>
       <c r="F6" s="2">
-        <v>13.79</v>
+        <v>10.3</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H6" s="2">
-        <v>797959.73</v>
+        <v>7135958.45</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E7" s="2">
-        <v>100000</v>
+        <v>57865.1</v>
       </c>
       <c r="F7" s="2">
-        <v>7.96</v>
+        <v>13.79</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H7" s="2">
-        <v>796000</v>
+        <v>797959.73</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E8" s="2">
-        <v>56827.4</v>
+        <v>100000</v>
       </c>
       <c r="F8" s="2">
-        <v>12.12</v>
+        <v>7.96</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H8" s="2">
-        <v>688748.09</v>
+        <v>796000</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E9" s="2">
-        <v>128844</v>
+        <v>56827.4</v>
       </c>
       <c r="F9" s="2">
-        <v>15.59</v>
+        <v>12.12</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H9" s="2">
-        <v>2008677.96</v>
+        <v>688748.09</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E10" s="2">
-        <v>1290.879</v>
+        <v>128844</v>
       </c>
       <c r="F10" s="2">
-        <v>11.02</v>
+        <v>15.59</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H10" s="2">
-        <v>14225.49</v>
+        <v>2008677.96</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E11" s="2">
-        <v>878.23</v>
+        <v>1290.879</v>
       </c>
       <c r="F11" s="2">
-        <v>30.76</v>
+        <v>11.02</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="H11" s="2">
-        <v>795302.61</v>
+        <v>14225.49</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>153</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E12" s="2">
-        <v>144.921</v>
+        <v>878.23</v>
       </c>
       <c r="F12" s="2">
-        <v>179.51</v>
+        <v>30.76</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="H12" s="2">
-        <v>26014.77</v>
+        <v>795302.61</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>29</v>
+        <v>155</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E13" s="2">
-        <v>4991.697</v>
+        <v>144.921</v>
       </c>
       <c r="F13" s="2">
-        <v>10.72</v>
+        <v>179.51</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H13" s="2">
-        <v>53510.99</v>
+        <v>26014.77</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E14" s="2">
-        <v>2922.326</v>
+        <v>4991.697</v>
       </c>
       <c r="F14" s="2">
-        <v>6.85</v>
+        <v>10.72</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="H14" s="2">
-        <v>589327.95</v>
+        <v>53510.99</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E15" s="2">
-        <v>240.155</v>
+        <v>2922.326</v>
       </c>
       <c r="F15" s="2">
-        <v>78.91</v>
+        <v>6.85</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H15" s="2">
-        <v>557906.58</v>
+        <v>589327.95</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>154</v>
+        <v>29</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E16" s="2">
-        <v>8948.284</v>
+        <v>240.155</v>
       </c>
       <c r="F16" s="2">
-        <v>17.65</v>
+        <v>78.91</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="H16" s="2">
-        <v>157937.21</v>
+        <v>557906.58</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>29</v>
+        <v>156</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E17" s="2">
-        <v>312.09</v>
+        <v>8948.284</v>
       </c>
       <c r="F17" s="2">
-        <v>65.62</v>
+        <v>17.65</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H17" s="2">
-        <v>20479.35</v>
+        <v>157937.21</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E18" s="2">
-        <v>190.211</v>
+        <v>312.09</v>
       </c>
       <c r="F18" s="2">
-        <v>63.08</v>
+        <v>65.62</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H18" s="2">
-        <v>11998.51</v>
+        <v>20479.35</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E19" s="2">
-        <v>6879.835</v>
+        <v>190.211</v>
       </c>
       <c r="F19" s="2">
-        <v>11.4</v>
+        <v>63.08</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H19" s="2">
-        <v>78430.12</v>
+        <v>11998.51</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E20" s="2">
-        <v>21933.2</v>
+        <v>6879.835</v>
       </c>
       <c r="F20" s="2">
-        <v>62.36</v>
+        <v>11.4</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H20" s="2">
-        <v>1367754.35</v>
+        <v>78430.12</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E21" s="2">
-        <v>159.708</v>
+        <v>21933.2</v>
       </c>
       <c r="F21" s="2">
-        <v>103.94</v>
+        <v>62.36</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="H21" s="2">
-        <v>489701.46</v>
+        <v>1367754.35</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E22" s="2">
-        <v>222.28</v>
+        <v>159.708</v>
       </c>
       <c r="F22" s="2">
-        <v>65.62</v>
+        <v>103.94</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H22" s="2">
-        <v>430287.4</v>
+        <v>489701.46</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E23" s="2">
-        <v>136.3814</v>
+        <v>222.28</v>
       </c>
       <c r="F23" s="2">
-        <v>109.3</v>
+        <v>65.62</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H23" s="2">
-        <v>439741.37</v>
+        <v>430287.4</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E24" s="2">
-        <v>212.679</v>
+        <v>136.3814</v>
       </c>
       <c r="F24" s="2">
-        <v>78.91</v>
+        <v>109.3</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H24" s="2">
-        <v>495083.75</v>
+        <v>439741.37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E25" s="2">
-        <v>86.585</v>
+        <v>212.679</v>
       </c>
       <c r="F25" s="2">
-        <v>96.32</v>
+        <v>78.91</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H25" s="2">
-        <v>246026.08</v>
+        <v>495083.75</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E26" s="2">
-        <v>55.204</v>
+        <v>86.585</v>
       </c>
       <c r="F26" s="2">
-        <v>119.31</v>
+        <v>96.32</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H26" s="2">
-        <v>194298.48</v>
+        <v>246026.08</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E27" s="2">
-        <v>663.76</v>
+        <v>55.204</v>
       </c>
       <c r="F27" s="2">
-        <v>20.78</v>
+        <v>119.31</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H27" s="2">
-        <v>406891.52</v>
+        <v>194298.48</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E28" s="2">
-        <v>367.85</v>
+        <v>663.76</v>
       </c>
       <c r="F28" s="2">
-        <v>25.22</v>
+        <v>20.78</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H28" s="2">
-        <v>273676.72</v>
+        <v>406891.52</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1">
+        <v>157</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E29" s="2">
+        <v>367.85</v>
+      </c>
+      <c r="F29" s="2">
+        <v>25.22</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H29" s="2">
+        <v>273676.72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1">
         <v>158</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E29" s="2">
+      <c r="B30" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E30" s="2">
         <v>1661859.4</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F30" s="2">
         <v>11.74</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H29" s="2">
+      <c r="G30" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H30" s="2">
         <v>19510229.36</v>
       </c>
     </row>
@@ -4261,7 +4761,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4269,458 +4769,475 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1">
+        <v>200</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
         <v>201</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>216</v>
+      <c r="B28" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -4730,7 +5247,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4738,68 +5255,91 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>219</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E2" s="2">
-        <v>500000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>227</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
+        <v>212</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E3" s="2">
+        <v>500000</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>213</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="E3" s="2">
+      <c r="D4" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E4" s="2">
         <v>100000</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>229</v>
+      <c r="F4" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/尤美女_2012-04-20_財產申報表_tmp36451.xlsx
+++ b/legislator/property/output/normal/尤美女_2012-04-20_財產申報表_tmp36451.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="233">
   <si>
     <t>name</t>
   </si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t>(超過五年停車位）</t>
+  </si>
+  <si>
+    <t>building</t>
   </si>
   <si>
     <t>台北市第九信用合作社士林分社</t>
@@ -1696,7 +1699,7 @@
         <v>41</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>43</v>
@@ -1749,7 +1752,7 @@
         <v>41</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>43</v>
@@ -1802,7 +1805,7 @@
         <v>67</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>43</v>
@@ -1855,7 +1858,7 @@
         <v>41</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>43</v>
@@ -1908,7 +1911,7 @@
         <v>67</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>43</v>
@@ -1961,7 +1964,7 @@
         <v>67</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>43</v>
@@ -2014,7 +2017,7 @@
         <v>67</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>43</v>
@@ -2067,7 +2070,7 @@
         <v>41</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>43</v>
@@ -2120,7 +2123,7 @@
         <v>41</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>43</v>
@@ -2173,7 +2176,7 @@
         <v>67</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>43</v>
@@ -2226,7 +2229,7 @@
         <v>41</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>43</v>
@@ -2268,13 +2271,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>30</v>
@@ -2289,13 +2292,13 @@
         <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>30</v>
@@ -2310,13 +2313,13 @@
         <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>30</v>
@@ -2331,13 +2334,13 @@
         <v>66</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>30</v>
@@ -2352,13 +2355,13 @@
         <v>67</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>30</v>
@@ -2373,13 +2376,13 @@
         <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>30</v>
@@ -2394,13 +2397,13 @@
         <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>30</v>
@@ -2415,13 +2418,13 @@
         <v>71</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>30</v>
@@ -2436,13 +2439,13 @@
         <v>72</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>30</v>
@@ -2457,13 +2460,13 @@
         <v>73</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>30</v>
@@ -2480,13 +2483,13 @@
         <v>74</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>30</v>
@@ -2503,13 +2506,13 @@
         <v>75</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>30</v>
@@ -2526,13 +2529,13 @@
         <v>76</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>29</v>
@@ -2549,13 +2552,13 @@
         <v>77</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>29</v>
@@ -2572,13 +2575,13 @@
         <v>78</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>29</v>
@@ -2595,13 +2598,13 @@
         <v>79</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>29</v>
@@ -2616,13 +2619,13 @@
         <v>80</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>29</v>
@@ -2637,13 +2640,13 @@
         <v>81</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>29</v>
@@ -2660,13 +2663,13 @@
         <v>82</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>29</v>
@@ -2683,13 +2686,13 @@
         <v>83</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>29</v>
@@ -2706,13 +2709,13 @@
         <v>84</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>29</v>
@@ -2729,13 +2732,13 @@
         <v>85</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>29</v>
@@ -2752,13 +2755,13 @@
         <v>86</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>29</v>
@@ -2773,13 +2776,13 @@
         <v>87</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>29</v>
@@ -2794,13 +2797,13 @@
         <v>88</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>29</v>
@@ -2815,13 +2818,13 @@
         <v>89</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>29</v>
@@ -2836,13 +2839,13 @@
         <v>90</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>29</v>
@@ -2851,7 +2854,7 @@
         <v>1013.44</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2859,13 +2862,13 @@
         <v>91</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>29</v>
@@ -2880,13 +2883,13 @@
         <v>92</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>30</v>
@@ -2919,13 +2922,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2957,7 +2960,7 @@
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
@@ -2969,13 +2972,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G2" s="2">
         <v>200200</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>43</v>
@@ -3001,7 +3004,7 @@
         <v>98</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>30</v>
@@ -3013,13 +3016,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G3" s="2">
         <v>157530</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>43</v>
@@ -3045,7 +3048,7 @@
         <v>99</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>30</v>
@@ -3057,13 +3060,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G4" s="2">
         <v>3180</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>43</v>
@@ -3089,7 +3092,7 @@
         <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>30</v>
@@ -3101,13 +3104,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G5" s="2">
         <v>1170</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>43</v>
@@ -3133,7 +3136,7 @@
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>30</v>
@@ -3145,13 +3148,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G6" s="2">
         <v>51910</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>43</v>
@@ -3177,7 +3180,7 @@
         <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>30</v>
@@ -3189,13 +3192,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G7" s="2">
         <v>177730</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>43</v>
@@ -3221,7 +3224,7 @@
         <v>103</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>30</v>
@@ -3233,13 +3236,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G8" s="2">
         <v>2270</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>43</v>
@@ -3265,7 +3268,7 @@
         <v>104</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>30</v>
@@ -3277,13 +3280,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G9" s="2">
         <v>245970</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>43</v>
@@ -3309,7 +3312,7 @@
         <v>105</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>30</v>
@@ -3321,13 +3324,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G10" s="2">
         <v>10600</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>43</v>
@@ -3353,7 +3356,7 @@
         <v>106</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>30</v>
@@ -3365,13 +3368,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="2">
         <v>10350</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>43</v>
@@ -3397,7 +3400,7 @@
         <v>107</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>30</v>
@@ -3409,13 +3412,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G12" s="2">
         <v>4070</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>43</v>
@@ -3441,7 +3444,7 @@
         <v>108</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>30</v>
@@ -3453,13 +3456,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G13" s="2">
         <v>71820</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>43</v>
@@ -3485,7 +3488,7 @@
         <v>109</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>29</v>
@@ -3497,13 +3500,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G14" s="2">
         <v>6230</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>43</v>
@@ -3529,7 +3532,7 @@
         <v>110</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>29</v>
@@ -3541,13 +3544,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G15" s="2">
         <v>654210</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>43</v>
@@ -3573,7 +3576,7 @@
         <v>111</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>29</v>
@@ -3585,13 +3588,13 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G16" s="2">
         <v>5790</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>43</v>
@@ -3617,7 +3620,7 @@
         <v>112</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>29</v>
@@ -3629,13 +3632,13 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G17" s="2">
         <v>5000</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>43</v>
@@ -3661,7 +3664,7 @@
         <v>113</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>29</v>
@@ -3673,13 +3676,13 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G18" s="2">
         <v>169270</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>43</v>
@@ -3705,7 +3708,7 @@
         <v>114</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>29</v>
@@ -3717,13 +3720,13 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G19" s="2">
         <v>250000</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>43</v>
@@ -3749,7 +3752,7 @@
         <v>115</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>29</v>
@@ -3761,13 +3764,13 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>43</v>
@@ -3793,7 +3796,7 @@
         <v>116</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>29</v>
@@ -3805,13 +3808,13 @@
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G21" s="2">
         <v>4720</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>43</v>
@@ -3837,7 +3840,7 @@
         <v>117</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>29</v>
@@ -3849,13 +3852,13 @@
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G22" s="2">
         <v>12710</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>43</v>
@@ -3881,7 +3884,7 @@
         <v>118</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>29</v>
@@ -3893,13 +3896,13 @@
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G23" s="2">
         <v>3140</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>43</v>
@@ -3925,7 +3928,7 @@
         <v>119</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>29</v>
@@ -3937,13 +3940,13 @@
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G24" s="2">
         <v>1383690</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>43</v>
@@ -3979,13 +3982,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E1" s="1">
         <v>5300.16</v>
@@ -3994,7 +3997,7 @@
         <v>17.43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H1" s="1">
         <v>2725262.77</v>
@@ -4005,13 +4008,13 @@
         <v>129</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E2" s="2">
         <v>5300.16</v>
@@ -4020,7 +4023,7 @@
         <v>17.43</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H2" s="2">
         <v>2725262.77</v>
@@ -4031,13 +4034,13 @@
         <v>130</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E3" s="2">
         <v>50000</v>
@@ -4046,7 +4049,7 @@
         <v>9.03</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H3" s="2">
         <v>451500</v>
@@ -4057,13 +4060,13 @@
         <v>131</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E4" s="2">
         <v>50000</v>
@@ -4072,7 +4075,7 @@
         <v>9.12</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H4" s="2">
         <v>456000</v>
@@ -4083,13 +4086,13 @@
         <v>132</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E5" s="2">
         <v>79365.1</v>
@@ -4098,7 +4101,7 @@
         <v>10.96</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H5" s="2">
         <v>869841.5</v>
@@ -4109,13 +4112,13 @@
         <v>133</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E6" s="2">
         <v>692811.5</v>
@@ -4124,7 +4127,7 @@
         <v>10.3</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H6" s="2">
         <v>7135958.45</v>
@@ -4135,13 +4138,13 @@
         <v>134</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E7" s="2">
         <v>57865.1</v>
@@ -4150,7 +4153,7 @@
         <v>13.79</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H7" s="2">
         <v>797959.73</v>
@@ -4161,13 +4164,13 @@
         <v>135</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E8" s="2">
         <v>100000</v>
@@ -4176,7 +4179,7 @@
         <v>7.96</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H8" s="2">
         <v>796000</v>
@@ -4187,13 +4190,13 @@
         <v>136</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E9" s="2">
         <v>56827.4</v>
@@ -4202,7 +4205,7 @@
         <v>12.12</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H9" s="2">
         <v>688748.09</v>
@@ -4213,13 +4216,13 @@
         <v>137</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E10" s="2">
         <v>128844</v>
@@ -4228,7 +4231,7 @@
         <v>15.59</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H10" s="2">
         <v>2008677.96</v>
@@ -4239,13 +4242,13 @@
         <v>138</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E11" s="2">
         <v>1290.879</v>
@@ -4254,7 +4257,7 @@
         <v>11.02</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H11" s="2">
         <v>14225.49</v>
@@ -4265,13 +4268,13 @@
         <v>139</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E12" s="2">
         <v>878.23</v>
@@ -4280,7 +4283,7 @@
         <v>30.76</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H12" s="2">
         <v>795302.61</v>
@@ -4291,13 +4294,13 @@
         <v>140</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E13" s="2">
         <v>144.921</v>
@@ -4306,7 +4309,7 @@
         <v>179.51</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H13" s="2">
         <v>26014.77</v>
@@ -4317,13 +4320,13 @@
         <v>141</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E14" s="2">
         <v>4991.697</v>
@@ -4332,7 +4335,7 @@
         <v>10.72</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H14" s="2">
         <v>53510.99</v>
@@ -4343,13 +4346,13 @@
         <v>142</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E15" s="2">
         <v>2922.326</v>
@@ -4358,7 +4361,7 @@
         <v>6.85</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H15" s="2">
         <v>589327.95</v>
@@ -4369,13 +4372,13 @@
         <v>143</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E16" s="2">
         <v>240.155</v>
@@ -4384,7 +4387,7 @@
         <v>78.91</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H16" s="2">
         <v>557906.58</v>
@@ -4395,13 +4398,13 @@
         <v>144</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E17" s="2">
         <v>8948.284</v>
@@ -4410,7 +4413,7 @@
         <v>17.65</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H17" s="2">
         <v>157937.21</v>
@@ -4421,13 +4424,13 @@
         <v>145</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E18" s="2">
         <v>312.09</v>
@@ -4436,7 +4439,7 @@
         <v>65.62</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H18" s="2">
         <v>20479.35</v>
@@ -4447,13 +4450,13 @@
         <v>146</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E19" s="2">
         <v>190.211</v>
@@ -4462,7 +4465,7 @@
         <v>63.08</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H19" s="2">
         <v>11998.51</v>
@@ -4473,13 +4476,13 @@
         <v>148</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E20" s="2">
         <v>6879.835</v>
@@ -4488,7 +4491,7 @@
         <v>11.4</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H20" s="2">
         <v>78430.12</v>
@@ -4499,13 +4502,13 @@
         <v>149</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E21" s="2">
         <v>21933.2</v>
@@ -4514,7 +4517,7 @@
         <v>62.36</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H21" s="2">
         <v>1367754.35</v>
@@ -4525,13 +4528,13 @@
         <v>150</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E22" s="2">
         <v>159.708</v>
@@ -4540,7 +4543,7 @@
         <v>103.94</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H22" s="2">
         <v>489701.46</v>
@@ -4551,13 +4554,13 @@
         <v>151</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E23" s="2">
         <v>222.28</v>
@@ -4566,7 +4569,7 @@
         <v>65.62</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H23" s="2">
         <v>430287.4</v>
@@ -4577,13 +4580,13 @@
         <v>152</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E24" s="2">
         <v>136.3814</v>
@@ -4592,7 +4595,7 @@
         <v>109.3</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H24" s="2">
         <v>439741.37</v>
@@ -4603,13 +4606,13 @@
         <v>153</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E25" s="2">
         <v>212.679</v>
@@ -4618,7 +4621,7 @@
         <v>78.91</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H25" s="2">
         <v>495083.75</v>
@@ -4629,13 +4632,13 @@
         <v>154</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E26" s="2">
         <v>86.585</v>
@@ -4644,7 +4647,7 @@
         <v>96.32</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H26" s="2">
         <v>246026.08</v>
@@ -4655,13 +4658,13 @@
         <v>155</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E27" s="2">
         <v>55.204</v>
@@ -4670,7 +4673,7 @@
         <v>119.31</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H27" s="2">
         <v>194298.48</v>
@@ -4681,13 +4684,13 @@
         <v>156</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E28" s="2">
         <v>663.76</v>
@@ -4696,7 +4699,7 @@
         <v>20.78</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H28" s="2">
         <v>406891.52</v>
@@ -4707,13 +4710,13 @@
         <v>157</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E29" s="2">
         <v>367.85</v>
@@ -4722,7 +4725,7 @@
         <v>25.22</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H29" s="2">
         <v>273676.72</v>
@@ -4733,13 +4736,13 @@
         <v>158</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E30" s="2">
         <v>1661859.4</v>
@@ -4748,7 +4751,7 @@
         <v>11.74</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H30" s="2">
         <v>19510229.36</v>
@@ -4769,16 +4772,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4786,16 +4789,16 @@
         <v>174</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4803,16 +4806,16 @@
         <v>175</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4820,16 +4823,16 @@
         <v>176</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4837,16 +4840,16 @@
         <v>177</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4854,16 +4857,16 @@
         <v>178</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4871,16 +4874,16 @@
         <v>179</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4888,16 +4891,16 @@
         <v>181</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4905,16 +4908,16 @@
         <v>182</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4922,16 +4925,16 @@
         <v>183</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4939,16 +4942,16 @@
         <v>184</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4956,16 +4959,16 @@
         <v>185</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4973,16 +4976,16 @@
         <v>186</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4990,16 +4993,16 @@
         <v>187</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -5007,16 +5010,16 @@
         <v>188</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -5024,16 +5027,16 @@
         <v>189</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5041,16 +5044,16 @@
         <v>190</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -5058,16 +5061,16 @@
         <v>191</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -5075,16 +5078,16 @@
         <v>192</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5092,16 +5095,16 @@
         <v>193</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -5109,16 +5112,16 @@
         <v>194</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -5126,16 +5129,16 @@
         <v>195</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -5143,16 +5146,16 @@
         <v>196</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -5160,16 +5163,16 @@
         <v>197</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -5177,16 +5180,16 @@
         <v>198</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -5194,16 +5197,16 @@
         <v>199</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -5211,16 +5214,16 @@
         <v>200</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -5228,16 +5231,16 @@
         <v>201</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -5255,22 +5258,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5278,22 +5281,22 @@
         <v>211</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5304,19 +5307,19 @@
         <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E3" s="2">
         <v>500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5327,19 +5330,19 @@
         <v>29</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E4" s="2">
         <v>100000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/尤美女_2012-04-20_財產申報表_tmp36451.xlsx
+++ b/legislator/property/output/normal/尤美女_2012-04-20_財產申報表_tmp36451.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="235">
   <si>
     <t>name</t>
   </si>
@@ -229,84 +229,93 @@
     <t>building</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>台北市第九信用合作社士林分社</t>
   </si>
   <si>
+    <t>士林蘭雅郵局（第83支局）</t>
+  </si>
+  <si>
+    <t>臺灣銀行士林分行</t>
+  </si>
+  <si>
+    <t>台新國際商業銀行天母分行</t>
+  </si>
+  <si>
+    <t>第一商業銀行民生分行</t>
+  </si>
+  <si>
+    <t>匯豐（台灣）商業銀行南京東路分行</t>
+  </si>
+  <si>
+    <t>匯豐（台灣）商業銀行南京束路分行</t>
+  </si>
+  <si>
+    <t>匯豐（台灣）商業銀fr南足東路分行</t>
+  </si>
+  <si>
+    <t>第商業銀行民生分行</t>
+  </si>
+  <si>
+    <t>臺灣新光商業銀行慶城分行</t>
+  </si>
+  <si>
+    <t>香港EFG銀行</t>
+  </si>
+  <si>
+    <t>德國郵局</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行民生分行</t>
+  </si>
+  <si>
+    <t>玉山商業銀行天母分行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行瑞光分行</t>
+  </si>
+  <si>
+    <t>安泰商業銀行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司台北體育場郵局(第81支局）</t>
+  </si>
+  <si>
+    <t>匯豐(台灣)商業銀行南京東路分行</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>支票存款</t>
+  </si>
+  <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
+    <t>綜合存政</t>
+  </si>
+  <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>定期存款</t>
+  </si>
+  <si>
+    <t>其他存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>士林蘭雅郵局（第83支局）</t>
-  </si>
-  <si>
-    <t>臺灣銀行士林分行</t>
-  </si>
-  <si>
-    <t>台新國際商業銀行天母分行</t>
-  </si>
-  <si>
-    <t>第一商業銀行民生分行</t>
-  </si>
-  <si>
-    <t>匯豐（台灣）商業銀行南京東路分行</t>
-  </si>
-  <si>
-    <t>匯豐（台灣）商業銀行南京束路分行</t>
-  </si>
-  <si>
-    <t>匯豐（台灣）商業銀fr南足東路分行</t>
-  </si>
-  <si>
-    <t>第商業銀行民生分行</t>
-  </si>
-  <si>
-    <t>臺灣新光商業銀行慶城分行</t>
-  </si>
-  <si>
-    <t>香港EFG銀行</t>
-  </si>
-  <si>
-    <t>德國郵局</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行民生分行</t>
-  </si>
-  <si>
-    <t>玉山商業銀行天母分行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行瑞光分行</t>
-  </si>
-  <si>
-    <t>安泰商業銀行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司台北體育場郵局(第81支局）</t>
-  </si>
-  <si>
-    <t>匯豐(台灣)商業銀行南京東路分行</t>
-  </si>
-  <si>
-    <t>支票存款</t>
-  </si>
-  <si>
-    <t>綜合存款</t>
-  </si>
-  <si>
-    <t>綜合存政</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
-    <t>其他存款</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
@@ -319,16 +328,13 @@
     <t>南非幣</t>
   </si>
   <si>
-    <t>29896.48</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>台灣塑膠工業股份有限公司</t>
@@ -2263,13 +2269,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>69</v>
       </c>
@@ -2280,625 +2286,1179 @@
         <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>2443727</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>2443727</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1730</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
         <v>279811</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1730</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>66</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>72472</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1730</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>67</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>36539</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1730</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>1951378</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1730</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="2">
+        <v>536716</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1730</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="2">
         <v>70</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
-        <v>536716</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>71</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="2">
+        <v>23311</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1730</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="2">
         <v>71</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
-        <v>23311</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>72</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>788</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1730</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>73</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F10" s="2">
-        <v>1601.37</v>
-      </c>
-      <c r="G10" s="2">
         <v>47240.42</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1730</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>74</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F11" s="2">
-        <v>6387.32</v>
-      </c>
-      <c r="G11" s="2">
         <v>188425.94</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1730</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>75</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F12" s="2">
-        <v>5.14</v>
-      </c>
-      <c r="G12" s="2">
         <v>199.23</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1730</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M12" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>76</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F13" s="2">
-        <v>712141.44</v>
-      </c>
-      <c r="G13" s="2">
         <v>21008172.48</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1730</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>77</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F14" s="2">
-        <v>47938.64</v>
-      </c>
-      <c r="G14" s="2">
         <v>1467881.16</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1730</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M14" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>78</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F15" s="2">
-        <v>61679.74</v>
-      </c>
-      <c r="G15" s="2">
         <v>2390706.72</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1730</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M15" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>79</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
+      <c r="F16" s="2">
         <v>3328155</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="G16" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1730</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M16" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>80</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2097541</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1730</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M17" s="2">
         <v>80</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2">
-        <v>2097541</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>81</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F18" s="2">
-        <v>790.07</v>
-      </c>
-      <c r="G18" s="2">
         <v>3025.97</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="G18" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1730</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M18" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>82</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F19" s="2">
-        <v>297.07</v>
-      </c>
-      <c r="G19" s="2">
         <v>8763.56</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="G19" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1730</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M19" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>83</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F20" s="2">
-        <v>84609.9</v>
-      </c>
-      <c r="G20" s="2">
         <v>2495992.05</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="G20" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1730</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M20" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>84</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F21" s="2">
-        <v>36487.92</v>
-      </c>
-      <c r="G21" s="2">
         <v>1076393.64</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="G21" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1730</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M21" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>85</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F22" s="2">
-        <v>2033.56</v>
-      </c>
-      <c r="G22" s="2">
         <v>78820.79</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="G22" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1730</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M22" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>86</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2">
+      <c r="F23" s="2">
         <v>20876</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="G23" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1730</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M23" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>87</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2">
+      <c r="F24" s="2">
         <v>8080</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="G24" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1730</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M24" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>88</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2">
+      <c r="F25" s="2">
         <v>72075</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="G25" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1730</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M25" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
         <v>89</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2">
+      <c r="F26" s="2">
         <v>131879</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="G26" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1730</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M26" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
         <v>90</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F27" s="2">
-        <v>1013.44</v>
+        <v>29896.48</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>102</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1730</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M27" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1">
         <v>91</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2">
+      <c r="F28" s="2">
         <v>1042727</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="G28" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K28" s="2">
+        <v>1730</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M28" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1">
         <v>92</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F29" s="2">
-        <v>240000</v>
-      </c>
-      <c r="G29" s="2">
         <v>7080000</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K29" s="2">
+        <v>1730</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M29" s="2">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2922,13 +3482,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2960,7 +3520,7 @@
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
@@ -2972,13 +3532,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="G2" s="2">
         <v>200200</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>43</v>
@@ -3004,7 +3564,7 @@
         <v>98</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>30</v>
@@ -3016,13 +3576,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="G3" s="2">
         <v>157530</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>43</v>
@@ -3048,7 +3608,7 @@
         <v>99</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>30</v>
@@ -3060,13 +3620,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="G4" s="2">
         <v>3180</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>43</v>
@@ -3092,7 +3652,7 @@
         <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>30</v>
@@ -3104,13 +3664,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="G5" s="2">
         <v>1170</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>43</v>
@@ -3136,7 +3696,7 @@
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>30</v>
@@ -3148,13 +3708,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="G6" s="2">
         <v>51910</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>43</v>
@@ -3180,7 +3740,7 @@
         <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>30</v>
@@ -3192,13 +3752,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="G7" s="2">
         <v>177730</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>43</v>
@@ -3224,7 +3784,7 @@
         <v>103</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>30</v>
@@ -3236,13 +3796,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="G8" s="2">
         <v>2270</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>43</v>
@@ -3268,7 +3828,7 @@
         <v>104</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>30</v>
@@ -3280,13 +3840,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="G9" s="2">
         <v>245970</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>43</v>
@@ -3312,7 +3872,7 @@
         <v>105</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>30</v>
@@ -3324,13 +3884,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="G10" s="2">
         <v>10600</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>43</v>
@@ -3356,7 +3916,7 @@
         <v>106</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>30</v>
@@ -3368,13 +3928,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="G11" s="2">
         <v>10350</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>43</v>
@@ -3400,7 +3960,7 @@
         <v>107</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>30</v>
@@ -3412,13 +3972,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="G12" s="2">
         <v>4070</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>43</v>
@@ -3444,7 +4004,7 @@
         <v>108</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>30</v>
@@ -3456,13 +4016,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="G13" s="2">
         <v>71820</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>43</v>
@@ -3488,7 +4048,7 @@
         <v>109</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>29</v>
@@ -3500,13 +4060,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="G14" s="2">
         <v>6230</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>43</v>
@@ -3532,7 +4092,7 @@
         <v>110</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>29</v>
@@ -3544,13 +4104,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="G15" s="2">
         <v>654210</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>43</v>
@@ -3576,7 +4136,7 @@
         <v>111</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>29</v>
@@ -3588,13 +4148,13 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="G16" s="2">
         <v>5790</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>43</v>
@@ -3620,7 +4180,7 @@
         <v>112</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>29</v>
@@ -3632,13 +4192,13 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="G17" s="2">
         <v>5000</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>43</v>
@@ -3664,7 +4224,7 @@
         <v>113</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>29</v>
@@ -3676,13 +4236,13 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="G18" s="2">
         <v>169270</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>43</v>
@@ -3708,7 +4268,7 @@
         <v>114</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>29</v>
@@ -3720,13 +4280,13 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="G19" s="2">
         <v>250000</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>43</v>
@@ -3752,7 +4312,7 @@
         <v>115</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>29</v>
@@ -3764,13 +4324,13 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>43</v>
@@ -3796,7 +4356,7 @@
         <v>116</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>29</v>
@@ -3808,13 +4368,13 @@
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="G21" s="2">
         <v>4720</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>43</v>
@@ -3840,7 +4400,7 @@
         <v>117</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>29</v>
@@ -3852,13 +4412,13 @@
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="G22" s="2">
         <v>12710</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>43</v>
@@ -3884,7 +4444,7 @@
         <v>118</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>29</v>
@@ -3896,13 +4456,13 @@
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="G23" s="2">
         <v>3140</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>43</v>
@@ -3928,7 +4488,7 @@
         <v>119</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>29</v>
@@ -3940,13 +4500,13 @@
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="G24" s="2">
         <v>1383690</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>43</v>
@@ -3982,13 +4542,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E1" s="1">
         <v>5300.16</v>
@@ -3997,7 +4557,7 @@
         <v>17.43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H1" s="1">
         <v>2725262.77</v>
@@ -4008,13 +4568,13 @@
         <v>129</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E2" s="2">
         <v>5300.16</v>
@@ -4023,7 +4583,7 @@
         <v>17.43</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H2" s="2">
         <v>2725262.77</v>
@@ -4034,13 +4594,13 @@
         <v>130</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E3" s="2">
         <v>50000</v>
@@ -4049,7 +4609,7 @@
         <v>9.03</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="H3" s="2">
         <v>451500</v>
@@ -4060,13 +4620,13 @@
         <v>131</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E4" s="2">
         <v>50000</v>
@@ -4075,7 +4635,7 @@
         <v>9.12</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="H4" s="2">
         <v>456000</v>
@@ -4086,13 +4646,13 @@
         <v>132</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E5" s="2">
         <v>79365.1</v>
@@ -4101,7 +4661,7 @@
         <v>10.96</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="H5" s="2">
         <v>869841.5</v>
@@ -4112,13 +4672,13 @@
         <v>133</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E6" s="2">
         <v>692811.5</v>
@@ -4127,7 +4687,7 @@
         <v>10.3</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="H6" s="2">
         <v>7135958.45</v>
@@ -4138,13 +4698,13 @@
         <v>134</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E7" s="2">
         <v>57865.1</v>
@@ -4153,7 +4713,7 @@
         <v>13.79</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="H7" s="2">
         <v>797959.73</v>
@@ -4164,13 +4724,13 @@
         <v>135</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E8" s="2">
         <v>100000</v>
@@ -4179,7 +4739,7 @@
         <v>7.96</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="H8" s="2">
         <v>796000</v>
@@ -4190,13 +4750,13 @@
         <v>136</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E9" s="2">
         <v>56827.4</v>
@@ -4205,7 +4765,7 @@
         <v>12.12</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="H9" s="2">
         <v>688748.09</v>
@@ -4216,13 +4776,13 @@
         <v>137</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E10" s="2">
         <v>128844</v>
@@ -4231,7 +4791,7 @@
         <v>15.59</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="H10" s="2">
         <v>2008677.96</v>
@@ -4242,13 +4802,13 @@
         <v>138</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E11" s="2">
         <v>1290.879</v>
@@ -4257,7 +4817,7 @@
         <v>11.02</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="H11" s="2">
         <v>14225.49</v>
@@ -4268,13 +4828,13 @@
         <v>139</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E12" s="2">
         <v>878.23</v>
@@ -4283,7 +4843,7 @@
         <v>30.76</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H12" s="2">
         <v>795302.61</v>
@@ -4294,13 +4854,13 @@
         <v>140</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E13" s="2">
         <v>144.921</v>
@@ -4309,7 +4869,7 @@
         <v>179.51</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="H13" s="2">
         <v>26014.77</v>
@@ -4320,13 +4880,13 @@
         <v>141</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E14" s="2">
         <v>4991.697</v>
@@ -4335,7 +4895,7 @@
         <v>10.72</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="H14" s="2">
         <v>53510.99</v>
@@ -4346,13 +4906,13 @@
         <v>142</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E15" s="2">
         <v>2922.326</v>
@@ -4361,7 +4921,7 @@
         <v>6.85</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H15" s="2">
         <v>589327.95</v>
@@ -4372,13 +4932,13 @@
         <v>143</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E16" s="2">
         <v>240.155</v>
@@ -4387,7 +4947,7 @@
         <v>78.91</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H16" s="2">
         <v>557906.58</v>
@@ -4398,13 +4958,13 @@
         <v>144</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E17" s="2">
         <v>8948.284</v>
@@ -4413,7 +4973,7 @@
         <v>17.65</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="H17" s="2">
         <v>157937.21</v>
@@ -4424,13 +4984,13 @@
         <v>145</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E18" s="2">
         <v>312.09</v>
@@ -4439,7 +4999,7 @@
         <v>65.62</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="H18" s="2">
         <v>20479.35</v>
@@ -4450,13 +5010,13 @@
         <v>146</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E19" s="2">
         <v>190.211</v>
@@ -4465,7 +5025,7 @@
         <v>63.08</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="H19" s="2">
         <v>11998.51</v>
@@ -4476,13 +5036,13 @@
         <v>148</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E20" s="2">
         <v>6879.835</v>
@@ -4491,7 +5051,7 @@
         <v>11.4</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="H20" s="2">
         <v>78430.12</v>
@@ -4502,13 +5062,13 @@
         <v>149</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E21" s="2">
         <v>21933.2</v>
@@ -4517,7 +5077,7 @@
         <v>62.36</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="H21" s="2">
         <v>1367754.35</v>
@@ -4528,13 +5088,13 @@
         <v>150</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E22" s="2">
         <v>159.708</v>
@@ -4543,7 +5103,7 @@
         <v>103.94</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H22" s="2">
         <v>489701.46</v>
@@ -4554,13 +5114,13 @@
         <v>151</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E23" s="2">
         <v>222.28</v>
@@ -4569,7 +5129,7 @@
         <v>65.62</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H23" s="2">
         <v>430287.4</v>
@@ -4580,13 +5140,13 @@
         <v>152</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E24" s="2">
         <v>136.3814</v>
@@ -4595,7 +5155,7 @@
         <v>109.3</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H24" s="2">
         <v>439741.37</v>
@@ -4606,13 +5166,13 @@
         <v>153</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E25" s="2">
         <v>212.679</v>
@@ -4621,7 +5181,7 @@
         <v>78.91</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H25" s="2">
         <v>495083.75</v>
@@ -4632,13 +5192,13 @@
         <v>154</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E26" s="2">
         <v>86.585</v>
@@ -4647,7 +5207,7 @@
         <v>96.32</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H26" s="2">
         <v>246026.08</v>
@@ -4658,13 +5218,13 @@
         <v>155</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E27" s="2">
         <v>55.204</v>
@@ -4673,7 +5233,7 @@
         <v>119.31</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H27" s="2">
         <v>194298.48</v>
@@ -4684,13 +5244,13 @@
         <v>156</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E28" s="2">
         <v>663.76</v>
@@ -4699,7 +5259,7 @@
         <v>20.78</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H28" s="2">
         <v>406891.52</v>
@@ -4710,13 +5270,13 @@
         <v>157</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E29" s="2">
         <v>367.85</v>
@@ -4725,7 +5285,7 @@
         <v>25.22</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H29" s="2">
         <v>273676.72</v>
@@ -4736,13 +5296,13 @@
         <v>158</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E30" s="2">
         <v>1661859.4</v>
@@ -4751,7 +5311,7 @@
         <v>11.74</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="H30" s="2">
         <v>19510229.36</v>
@@ -4772,16 +5332,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4789,16 +5349,16 @@
         <v>174</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4806,16 +5366,16 @@
         <v>175</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4823,16 +5383,16 @@
         <v>176</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4840,16 +5400,16 @@
         <v>177</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4857,16 +5417,16 @@
         <v>178</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4874,16 +5434,16 @@
         <v>179</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4891,16 +5451,16 @@
         <v>181</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4908,16 +5468,16 @@
         <v>182</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4925,16 +5485,16 @@
         <v>183</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4942,16 +5502,16 @@
         <v>184</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4959,16 +5519,16 @@
         <v>185</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4976,16 +5536,16 @@
         <v>186</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4993,16 +5553,16 @@
         <v>187</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -5010,16 +5570,16 @@
         <v>188</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -5027,16 +5587,16 @@
         <v>189</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5044,16 +5604,16 @@
         <v>190</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -5061,16 +5621,16 @@
         <v>191</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -5078,16 +5638,16 @@
         <v>192</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5095,16 +5655,16 @@
         <v>193</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -5112,16 +5672,16 @@
         <v>194</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -5129,16 +5689,16 @@
         <v>195</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -5146,16 +5706,16 @@
         <v>196</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -5163,16 +5723,16 @@
         <v>197</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -5180,16 +5740,16 @@
         <v>198</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -5197,16 +5757,16 @@
         <v>199</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -5214,16 +5774,16 @@
         <v>200</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -5231,16 +5791,16 @@
         <v>201</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -5258,22 +5818,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5281,22 +5841,22 @@
         <v>211</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5307,19 +5867,19 @@
         <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E3" s="2">
         <v>500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5330,19 +5890,19 @@
         <v>29</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E4" s="2">
         <v>100000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/尤美女_2012-04-20_財產申報表_tmp36451.xlsx
+++ b/legislator/property/output/normal/尤美女_2012-04-20_財產申報表_tmp36451.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="237">
   <si>
     <t>name</t>
   </si>
@@ -406,102 +406,105 @@
     <t>stock</t>
   </si>
   <si>
+    <t>dealer</t>
+  </si>
+  <si>
     <t>貝萊德美國政府房貸債券基金</t>
   </si>
   <si>
+    <t>群益華夏盛世基金</t>
+  </si>
+  <si>
+    <t>群益印巴雙星基金</t>
+  </si>
+  <si>
+    <t>德盛安聯中國東協基金</t>
+  </si>
+  <si>
+    <t>德盛四季豐收債組月配</t>
+  </si>
+  <si>
+    <t>寶來台灣加權股價指數</t>
+  </si>
+  <si>
+    <t>寶來巴西指數基金</t>
+  </si>
+  <si>
+    <t>復華華人世紀</t>
+  </si>
+  <si>
+    <t>群益安穩貨幣市場</t>
+  </si>
+  <si>
+    <t>英傑華新興市場債美配</t>
+  </si>
+  <si>
+    <t>富達東協基金美元</t>
+  </si>
+  <si>
+    <t>JF印度基金一美元</t>
+  </si>
+  <si>
+    <t>摩根美國複合收益美配</t>
+  </si>
+  <si>
+    <t>(坦全）公司債一美元</t>
+  </si>
+  <si>
+    <t>(坦全）拉丁美洲美元</t>
+  </si>
+  <si>
+    <t>坦全新興固定B股美元</t>
+  </si>
+  <si>
+    <t>貝萊德世界礦業美元</t>
+  </si>
+  <si>
+    <t>德利德國歐元</t>
+  </si>
+  <si>
+    <t>PIMGO多元債歐避</t>
+  </si>
+  <si>
+    <t>群益馬拉松基金</t>
+  </si>
+  <si>
+    <t>JF東協基金</t>
+  </si>
+  <si>
+    <t>貝萊德世界礦業基金</t>
+  </si>
+  <si>
+    <t>荷寶中國股票D美元</t>
+  </si>
+  <si>
+    <t>富林拉丁美洲基金</t>
+  </si>
+  <si>
+    <t>霸菱東歐美元</t>
+  </si>
+  <si>
+    <t>霸菱澳洲基金</t>
+  </si>
+  <si>
+    <t>富達新興市場基金</t>
+  </si>
+  <si>
+    <t>霸菱全球資源基金美元</t>
+  </si>
+  <si>
+    <t>群益鑫盛一號某金</t>
+  </si>
+  <si>
+    <t>黄瑞明</t>
+  </si>
+  <si>
+    <t>M瑞明</t>
+  </si>
+  <si>
     <t>匯豐銀行南京東路分行</t>
   </si>
   <si>
-    <t>群益華夏盛世基金</t>
-  </si>
-  <si>
-    <t>群益印巴雙星基金</t>
-  </si>
-  <si>
-    <t>德盛安聯中國東協基金</t>
-  </si>
-  <si>
-    <t>德盛四季豐收債組月配</t>
-  </si>
-  <si>
-    <t>寶來台灣加權股價指數</t>
-  </si>
-  <si>
-    <t>寶來巴西指數基金</t>
-  </si>
-  <si>
-    <t>復華華人世紀</t>
-  </si>
-  <si>
-    <t>群益安穩貨幣市場</t>
-  </si>
-  <si>
-    <t>英傑華新興市場債美配</t>
-  </si>
-  <si>
-    <t>富達東協基金美元</t>
-  </si>
-  <si>
-    <t>JF印度基金一美元</t>
-  </si>
-  <si>
-    <t>摩根美國複合收益美配</t>
-  </si>
-  <si>
-    <t>(坦全）公司債一美元</t>
-  </si>
-  <si>
-    <t>(坦全）拉丁美洲美元</t>
-  </si>
-  <si>
-    <t>坦全新興固定B股美元</t>
-  </si>
-  <si>
-    <t>貝萊德世界礦業美元</t>
-  </si>
-  <si>
-    <t>德利德國歐元</t>
-  </si>
-  <si>
-    <t>PIMGO多元債歐避</t>
-  </si>
-  <si>
-    <t>群益馬拉松基金</t>
-  </si>
-  <si>
-    <t>JF東協基金</t>
-  </si>
-  <si>
-    <t>貝萊德世界礦業基金</t>
-  </si>
-  <si>
-    <t>荷寶中國股票D美元</t>
-  </si>
-  <si>
-    <t>富林拉丁美洲基金</t>
-  </si>
-  <si>
-    <t>霸菱東歐美元</t>
-  </si>
-  <si>
-    <t>霸菱澳洲基金</t>
-  </si>
-  <si>
-    <t>富達新興市場基金</t>
-  </si>
-  <si>
-    <t>霸菱全球資源基金美元</t>
-  </si>
-  <si>
-    <t>群益鑫盛一號某金</t>
-  </si>
-  <si>
-    <t>黄瑞明</t>
-  </si>
-  <si>
-    <t>M瑞明</t>
-  </si>
-  <si>
     <t>群益證券投資股份有限公司</t>
   </si>
   <si>
@@ -512,6 +515,9 @@
   </si>
   <si>
     <t>國泰世華銀行信託部</t>
+  </si>
+  <si>
+    <t>fund</t>
   </si>
   <si>
     <t>南山人壽保險股份有限公司</t>
@@ -4534,47 +4540,68 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E1" s="1">
-        <v>5300.16</v>
-      </c>
-      <c r="F1" s="1">
-        <v>17.43</v>
+      <c r="E1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H1" s="1">
-        <v>2725262.77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>129</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="E2" s="2">
         <v>5300.16</v>
@@ -4588,8 +4615,29 @@
       <c r="H2" s="2">
         <v>2725262.77</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>130</v>
       </c>
@@ -4600,7 +4648,7 @@
         <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E3" s="2">
         <v>50000</v>
@@ -4614,8 +4662,29 @@
       <c r="H3" s="2">
         <v>451500</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>131</v>
       </c>
@@ -4626,7 +4695,7 @@
         <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E4" s="2">
         <v>50000</v>
@@ -4640,8 +4709,29 @@
       <c r="H4" s="2">
         <v>456000</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>132</v>
       </c>
@@ -4652,7 +4742,7 @@
         <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E5" s="2">
         <v>79365.1</v>
@@ -4666,8 +4756,29 @@
       <c r="H5" s="2">
         <v>869841.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>133</v>
       </c>
@@ -4678,7 +4789,7 @@
         <v>29</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E6" s="2">
         <v>692811.5</v>
@@ -4692,8 +4803,29 @@
       <c r="H6" s="2">
         <v>7135958.45</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>134</v>
       </c>
@@ -4704,7 +4836,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E7" s="2">
         <v>57865.1</v>
@@ -4718,8 +4850,29 @@
       <c r="H7" s="2">
         <v>797959.73</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>135</v>
       </c>
@@ -4730,7 +4883,7 @@
         <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E8" s="2">
         <v>100000</v>
@@ -4744,8 +4897,29 @@
       <c r="H8" s="2">
         <v>796000</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O8" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>136</v>
       </c>
@@ -4756,7 +4930,7 @@
         <v>29</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E9" s="2">
         <v>56827.4</v>
@@ -4770,8 +4944,29 @@
       <c r="H9" s="2">
         <v>688748.09</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O9" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>137</v>
       </c>
@@ -4782,7 +4977,7 @@
         <v>29</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E10" s="2">
         <v>128844</v>
@@ -4796,8 +4991,29 @@
       <c r="H10" s="2">
         <v>2008677.96</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>138</v>
       </c>
@@ -4808,7 +5024,7 @@
         <v>29</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E11" s="2">
         <v>1290.879</v>
@@ -4822,8 +5038,29 @@
       <c r="H11" s="2">
         <v>14225.49</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O11" s="2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>139</v>
       </c>
@@ -4834,7 +5071,7 @@
         <v>29</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E12" s="2">
         <v>878.23</v>
@@ -4848,8 +5085,29 @@
       <c r="H12" s="2">
         <v>795302.61</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O12" s="2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>140</v>
       </c>
@@ -4860,7 +5118,7 @@
         <v>158</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E13" s="2">
         <v>144.921</v>
@@ -4874,8 +5132,29 @@
       <c r="H13" s="2">
         <v>26014.77</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O13" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>141</v>
       </c>
@@ -4886,7 +5165,7 @@
         <v>29</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E14" s="2">
         <v>4991.697</v>
@@ -4900,8 +5179,29 @@
       <c r="H14" s="2">
         <v>53510.99</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O14" s="2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>142</v>
       </c>
@@ -4912,7 +5212,7 @@
         <v>29</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E15" s="2">
         <v>2922.326</v>
@@ -4926,8 +5226,29 @@
       <c r="H15" s="2">
         <v>589327.95</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O15" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>143</v>
       </c>
@@ -4938,7 +5259,7 @@
         <v>29</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E16" s="2">
         <v>240.155</v>
@@ -4952,8 +5273,29 @@
       <c r="H16" s="2">
         <v>557906.58</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O16" s="2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>144</v>
       </c>
@@ -4964,7 +5306,7 @@
         <v>159</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E17" s="2">
         <v>8948.284</v>
@@ -4978,8 +5320,29 @@
       <c r="H17" s="2">
         <v>157937.21</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O17" s="2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>145</v>
       </c>
@@ -4990,7 +5353,7 @@
         <v>29</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E18" s="2">
         <v>312.09</v>
@@ -5004,8 +5367,29 @@
       <c r="H18" s="2">
         <v>20479.35</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O18" s="2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>146</v>
       </c>
@@ -5016,7 +5400,7 @@
         <v>29</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E19" s="2">
         <v>190.211</v>
@@ -5030,8 +5414,29 @@
       <c r="H19" s="2">
         <v>11998.51</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O19" s="2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>148</v>
       </c>
@@ -5042,7 +5447,7 @@
         <v>29</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E20" s="2">
         <v>6879.835</v>
@@ -5056,8 +5461,29 @@
       <c r="H20" s="2">
         <v>78430.12</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O20" s="2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>149</v>
       </c>
@@ -5068,7 +5494,7 @@
         <v>29</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E21" s="2">
         <v>21933.2</v>
@@ -5082,8 +5508,29 @@
       <c r="H21" s="2">
         <v>1367754.35</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O21" s="2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>150</v>
       </c>
@@ -5094,7 +5541,7 @@
         <v>29</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E22" s="2">
         <v>159.708</v>
@@ -5108,8 +5555,29 @@
       <c r="H22" s="2">
         <v>489701.46</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M22" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O22" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>151</v>
       </c>
@@ -5120,7 +5588,7 @@
         <v>29</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E23" s="2">
         <v>222.28</v>
@@ -5134,8 +5602,29 @@
       <c r="H23" s="2">
         <v>430287.4</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M23" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O23" s="2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>152</v>
       </c>
@@ -5146,7 +5635,7 @@
         <v>29</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E24" s="2">
         <v>136.3814</v>
@@ -5160,8 +5649,29 @@
       <c r="H24" s="2">
         <v>439741.37</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O24" s="2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>153</v>
       </c>
@@ -5172,7 +5682,7 @@
         <v>29</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E25" s="2">
         <v>212.679</v>
@@ -5186,8 +5696,29 @@
       <c r="H25" s="2">
         <v>495083.75</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M25" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O25" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="1">
         <v>154</v>
       </c>
@@ -5198,7 +5729,7 @@
         <v>29</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E26" s="2">
         <v>86.585</v>
@@ -5212,8 +5743,29 @@
       <c r="H26" s="2">
         <v>246026.08</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M26" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O26" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="1">
         <v>155</v>
       </c>
@@ -5224,7 +5776,7 @@
         <v>29</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E27" s="2">
         <v>55.204</v>
@@ -5238,8 +5790,29 @@
       <c r="H27" s="2">
         <v>194298.48</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O27" s="2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="1">
         <v>156</v>
       </c>
@@ -5250,7 +5823,7 @@
         <v>29</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E28" s="2">
         <v>663.76</v>
@@ -5264,8 +5837,29 @@
       <c r="H28" s="2">
         <v>406891.52</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M28" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O28" s="2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="1">
         <v>157</v>
       </c>
@@ -5276,7 +5870,7 @@
         <v>29</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E29" s="2">
         <v>367.85</v>
@@ -5290,8 +5884,29 @@
       <c r="H29" s="2">
         <v>273676.72</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M29" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O29" s="2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="1">
         <v>158</v>
       </c>
@@ -5302,7 +5917,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E30" s="2">
         <v>1661859.4</v>
@@ -5315,6 +5930,27 @@
       </c>
       <c r="H30" s="2">
         <v>19510229.36</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M30" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O30" s="2">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -5332,16 +5968,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5349,16 +5985,16 @@
         <v>174</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5366,16 +6002,16 @@
         <v>175</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5383,16 +6019,16 @@
         <v>176</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5400,16 +6036,16 @@
         <v>177</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5417,16 +6053,16 @@
         <v>178</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5434,16 +6070,16 @@
         <v>179</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5451,16 +6087,16 @@
         <v>181</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5468,16 +6104,16 @@
         <v>182</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5485,16 +6121,16 @@
         <v>183</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5502,16 +6138,16 @@
         <v>184</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -5519,16 +6155,16 @@
         <v>185</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5536,16 +6172,16 @@
         <v>186</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5553,16 +6189,16 @@
         <v>187</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -5570,16 +6206,16 @@
         <v>188</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -5587,16 +6223,16 @@
         <v>189</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5604,16 +6240,16 @@
         <v>190</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -5621,16 +6257,16 @@
         <v>191</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -5638,16 +6274,16 @@
         <v>192</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5655,16 +6291,16 @@
         <v>193</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -5672,16 +6308,16 @@
         <v>194</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -5689,16 +6325,16 @@
         <v>195</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -5706,16 +6342,16 @@
         <v>196</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -5723,16 +6359,16 @@
         <v>197</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -5740,16 +6376,16 @@
         <v>198</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -5757,16 +6393,16 @@
         <v>199</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -5774,16 +6410,16 @@
         <v>200</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -5791,16 +6427,16 @@
         <v>201</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -5818,22 +6454,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5841,22 +6477,22 @@
         <v>211</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5867,19 +6503,19 @@
         <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E3" s="2">
         <v>500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5890,19 +6526,19 @@
         <v>29</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E4" s="2">
         <v>100000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/尤美女_2012-04-20_財產申報表_tmp36451.xlsx
+++ b/legislator/property/output/normal/尤美女_2012-04-20_財產申報表_tmp36451.xlsx
@@ -13,14 +13,14 @@
     <sheet name="股票" sheetId="4" r:id="rId4"/>
     <sheet name="基金受益憑證" sheetId="5" r:id="rId5"/>
     <sheet name="保險" sheetId="6" r:id="rId6"/>
-    <sheet name="債務" sheetId="7" r:id="rId7"/>
+    <sheet name="事業投資" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="208">
   <si>
     <t>name</t>
   </si>
@@ -520,42 +520,42 @@
     <t>fund</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>南山人壽保險股份有限公司</t>
   </si>
   <si>
+    <t>全球人壽</t>
+  </si>
+  <si>
+    <t>安聯人壽</t>
+  </si>
+  <si>
+    <t>法國巴黎人壽</t>
+  </si>
+  <si>
+    <t>富邦人壽</t>
+  </si>
+  <si>
+    <t>第一金人壽</t>
+  </si>
+  <si>
+    <t>中華郵政</t>
+  </si>
+  <si>
+    <t>匯豐人壽</t>
+  </si>
+  <si>
+    <t>匯罾人壽</t>
+  </si>
+  <si>
+    <t>南山人壽</t>
+  </si>
+  <si>
     <t>南山康寧終身壽險</t>
   </si>
   <si>
-    <t>N207106590</t>
-  </si>
-  <si>
-    <t>全球人壽</t>
-  </si>
-  <si>
-    <t>安聯人壽</t>
-  </si>
-  <si>
-    <t>法國巴黎人壽</t>
-  </si>
-  <si>
-    <t>富邦人壽</t>
-  </si>
-  <si>
-    <t>第一金人壽</t>
-  </si>
-  <si>
-    <t>中華郵政</t>
-  </si>
-  <si>
-    <t>匯豐人壽</t>
-  </si>
-  <si>
-    <t>匯罾人壽</t>
-  </si>
-  <si>
-    <t>南山人壽</t>
-  </si>
-  <si>
     <t>南山人壽伴我一生躉繳變額壽險</t>
   </si>
   <si>
@@ -616,100 +616,10 @@
     <t>南山人壽新康祥終身壽險B型</t>
   </si>
   <si>
-    <t>V171004582</t>
-  </si>
-  <si>
-    <t>N207080315</t>
-  </si>
-  <si>
-    <t>N207080328</t>
-  </si>
-  <si>
-    <t>N207080331</t>
-  </si>
-  <si>
-    <t>N207207114</t>
-  </si>
-  <si>
-    <t>N207080344</t>
-  </si>
-  <si>
-    <t>N207080357</t>
-  </si>
-  <si>
-    <t>N207080360</t>
-  </si>
-  <si>
-    <t>N207207127</t>
-  </si>
-  <si>
-    <t>N207080373</t>
-  </si>
-  <si>
-    <t>9901738960</t>
-  </si>
-  <si>
-    <t>PL02269737</t>
-  </si>
-  <si>
-    <t>PL07206108</t>
-  </si>
-  <si>
-    <t>ULD1195265</t>
-  </si>
-  <si>
-    <t>保單號碼:M10170734901</t>
-  </si>
-  <si>
-    <t>保單號碼00628181</t>
-  </si>
-  <si>
-    <t>保單號碼:00629006</t>
-  </si>
-  <si>
-    <t>保單號碼：65485917</t>
-  </si>
-  <si>
-    <t>專案代號:099105</t>
-  </si>
-  <si>
-    <t>專案代號：097111</t>
-  </si>
-  <si>
-    <t>保險號碼:60009174</t>
-  </si>
-  <si>
-    <t>保險號碼:60030108</t>
-  </si>
-  <si>
-    <t>保險號碼:60009111</t>
-  </si>
-  <si>
-    <t>保險號碼:N207080386</t>
-  </si>
-  <si>
-    <t>保險號碼:N207080399</t>
-  </si>
-  <si>
-    <t>保險號碼：犯07207130</t>
-  </si>
-  <si>
-    <t>投資人</t>
-  </si>
-  <si>
-    <t>投資事業名稱</t>
-  </si>
-  <si>
-    <t>投資事業地址</t>
-  </si>
-  <si>
-    <t>投資金額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>address</t>
   </si>
   <si>
     <t>先驅媒體社會企業股份有限公司</t>
@@ -731,6 +641,9 @@
   </si>
   <si>
     <t>投資</t>
+  </si>
+  <si>
+    <t>investment</t>
   </si>
 </sst>
 </file>
@@ -5960,49 +5873,85 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>166</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>174</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>198</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1730</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>175</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>178</v>
@@ -6013,13 +5962,31 @@
       <c r="E3" s="2" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1730</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>176</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>179</v>
@@ -6028,15 +5995,33 @@
         <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>198</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1730</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>177</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>180</v>
@@ -6045,15 +6030,33 @@
         <v>30</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>198</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1730</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>178</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>181</v>
@@ -6062,15 +6065,33 @@
         <v>30</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>198</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1730</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>179</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>182</v>
@@ -6079,15 +6100,33 @@
         <v>30</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>198</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1730</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>181</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>183</v>
@@ -6096,15 +6135,33 @@
         <v>30</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>198</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1730</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>182</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>180</v>
@@ -6113,15 +6170,33 @@
         <v>30</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>198</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1730</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>183</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>181</v>
@@ -6130,15 +6205,33 @@
         <v>30</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>198</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1730</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>184</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>182</v>
@@ -6147,15 +6240,33 @@
         <v>30</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>198</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1730</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>185</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>179</v>
@@ -6164,15 +6275,33 @@
         <v>30</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>198</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1730</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>186</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>184</v>
@@ -6181,15 +6310,33 @@
         <v>29</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>198</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1730</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>187</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>185</v>
@@ -6198,15 +6345,33 @@
         <v>29</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>198</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1730</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>188</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>186</v>
@@ -6215,15 +6380,33 @@
         <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>198</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1730</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" s="2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>189</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>187</v>
@@ -6232,15 +6415,33 @@
         <v>29</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>198</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1730</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K16" s="2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>190</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>188</v>
@@ -6249,15 +6450,33 @@
         <v>29</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>198</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1730</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17" s="2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>191</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>189</v>
@@ -6266,15 +6485,33 @@
         <v>29</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>198</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1730</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K18" s="2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>192</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>190</v>
@@ -6283,15 +6520,33 @@
         <v>29</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>198</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1730</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K19" s="2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>193</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>191</v>
@@ -6300,15 +6555,33 @@
         <v>29</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>198</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1730</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20" s="2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>194</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>192</v>
@@ -6317,15 +6590,33 @@
         <v>29</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>198</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1730</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" s="2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>195</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>193</v>
@@ -6334,15 +6625,33 @@
         <v>29</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>198</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1730</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K22" s="2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>196</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>194</v>
@@ -6351,15 +6660,33 @@
         <v>30</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>198</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1730</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K23" s="2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>197</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>195</v>
@@ -6368,15 +6695,33 @@
         <v>30</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>198</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1730</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K24" s="2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>198</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>196</v>
@@ -6385,15 +6730,33 @@
         <v>30</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>198</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1730</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K25" s="2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>199</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>180</v>
@@ -6402,15 +6765,33 @@
         <v>30</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>198</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1730</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K26" s="2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>200</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>181</v>
@@ -6419,15 +6800,33 @@
         <v>30</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>198</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1730</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K27" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>201</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>197</v>
@@ -6436,7 +6835,25 @@
         <v>30</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>223</v>
+        <v>198</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1730</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K28" s="2">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -6446,99 +6863,139 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>224</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>225</v>
+        <v>166</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>227</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>228</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>224</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>227</v>
+        <v>202</v>
+      </c>
+      <c r="E2" s="2">
+        <v>500000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>206</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1730</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="E3" s="2">
-        <v>500000</v>
+        <v>100000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
+        <v>206</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1730</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="2">
         <v>213</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E4" s="2">
-        <v>100000</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>236</v>
       </c>
     </row>
   </sheetData>
